--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -63,7 +63,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>20.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="2">
@@ -71,16 +71,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -88,16 +88,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>30.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -105,16 +105,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -122,16 +122,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -139,16 +139,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>17.320999145507812</v>
+        <v>40.0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -156,16 +156,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-17.320999145507812</v>
+        <v>21.0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -173,16 +173,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.320999145507812</v>
+        <v>17.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.0</v>
+        <v>63.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -190,16 +190,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>17.320999145507812</v>
+        <v>31.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.0</v>
+        <v>62.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -207,16 +207,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>34.64099884033203</v>
+        <v>52.0</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -224,16 +224,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-34.64099884033203</v>
+        <v>51.0</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -241,16 +241,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-34.64099884033203</v>
+        <v>42.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-20.0</v>
+        <v>41.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -258,16 +258,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>34.64099884033203</v>
+        <v>31.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-20.0</v>
+        <v>32.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -275,13 +275,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>28.97800064086914</v>
+        <v>5.0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.764999866485596</v>
+        <v>25.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -292,13 +292,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>21.21299934387207</v>
+        <v>12.0</v>
       </c>
       <c r="C15" t="n">
-        <v>21.21299934387207</v>
+        <v>42.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -309,13 +309,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-21.21299934387207</v>
+        <v>36.0</v>
       </c>
       <c r="C16" t="n">
-        <v>21.21299934387207</v>
+        <v>16.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -326,13 +326,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-28.97800064086914</v>
+        <v>52.0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.764999866485596</v>
+        <v>41.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -343,13 +343,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>-28.97800064086914</v>
+        <v>27.0</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.764999866485596</v>
+        <v>23.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -360,13 +360,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-21.21299934387207</v>
+        <v>17.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-21.21299934387207</v>
+        <v>33.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0</v>
+        <v>41.0</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -377,13 +377,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>21.21299934387207</v>
+        <v>13.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-21.21299934387207</v>
+        <v>13.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -394,15 +394,542 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>28.97800064086914</v>
+        <v>57.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.764999866485596</v>
+        <v>58.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="E21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="E52" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -71,14 +71,14 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -86,14 +86,14 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" t="n">
-        <v>49.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -101,14 +101,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>52.0</v>
+        <v>-10.0</v>
       </c>
       <c r="C4" t="n">
-        <v>64.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -116,14 +116,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>20.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>-10.0</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -131,14 +131,14 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -146,14 +146,14 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,14 +161,14 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0</v>
+        <v>-50.0</v>
       </c>
       <c r="C8" t="n">
-        <v>63.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -176,14 +176,14 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>62.0</v>
+        <v>-50.0</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -191,14 +191,14 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>52.0</v>
+        <v>90.0</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -206,14 +206,14 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>21.0</v>
+        <v>90.0</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -221,14 +221,14 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>-90.0</v>
       </c>
       <c r="C12" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -236,14 +236,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0</v>
+        <v>-90.0</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -251,14 +251,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>130.0</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -266,14 +266,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>42.0</v>
+        <v>130.0</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -281,14 +281,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>-130.0</v>
       </c>
       <c r="C16" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -296,14 +296,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>52.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>41.0</v>
+        <v>-130.0</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -311,14 +311,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>27.0</v>
+        <v>170.0</v>
       </c>
       <c r="C18" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -326,14 +326,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0</v>
+        <v>170.0</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -341,14 +341,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>13.0</v>
+        <v>-170.0</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
@@ -356,14 +356,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>57.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C21" t="n">
-        <v>58.0</v>
+        <v>-170.0</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
@@ -371,14 +371,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>62.0</v>
+        <v>210.0</v>
       </c>
       <c r="C22" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -386,14 +386,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>57.0</v>
+        <v>210.0</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
@@ -401,14 +401,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>16.0</v>
+        <v>-210.0</v>
       </c>
       <c r="C24" t="n">
-        <v>57.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -416,14 +416,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>-0.0</v>
       </c>
       <c r="C25" t="n">
-        <v>52.0</v>
+        <v>-210.0</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -431,14 +431,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>19.319000244140625</v>
       </c>
       <c r="C26" t="n">
-        <v>38.0</v>
+        <v>5.176000118255615</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -446,14 +446,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>27.0</v>
+        <v>5.176000118255615</v>
       </c>
       <c r="C27" t="n">
-        <v>68.0</v>
+        <v>19.319000244140625</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -461,14 +461,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0</v>
+        <v>-5.176000118255615</v>
       </c>
       <c r="C28" t="n">
-        <v>48.0</v>
+        <v>19.319000244140625</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -476,14 +476,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>43.0</v>
+        <v>-19.319000244140625</v>
       </c>
       <c r="C29" t="n">
-        <v>67.0</v>
+        <v>5.176000118255615</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -491,14 +491,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>58.0</v>
+        <v>-19.319000244140625</v>
       </c>
       <c r="C30" t="n">
-        <v>48.0</v>
+        <v>-5.176000118255615</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -506,14 +506,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>58.0</v>
+        <v>-5.176000118255615</v>
       </c>
       <c r="C31" t="n">
-        <v>27.0</v>
+        <v>-19.319000244140625</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -521,14 +521,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>37.0</v>
+        <v>5.176000118255615</v>
       </c>
       <c r="C32" t="n">
-        <v>69.0</v>
+        <v>-19.319000244140625</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -536,14 +536,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>38.0</v>
+        <v>19.319000244140625</v>
       </c>
       <c r="C33" t="n">
-        <v>46.0</v>
+        <v>-5.176000118255615</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -551,14 +551,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>46.0</v>
+        <v>38.637001037597656</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0</v>
+        <v>10.352999687194824</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -566,14 +566,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>61.0</v>
+        <v>10.352999687194824</v>
       </c>
       <c r="C35" t="n">
-        <v>33.0</v>
+        <v>38.637001037597656</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -581,14 +581,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>62.0</v>
+        <v>-10.352999687194824</v>
       </c>
       <c r="C36" t="n">
-        <v>63.0</v>
+        <v>38.637001037597656</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -596,14 +596,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>63.0</v>
+        <v>-38.637001037597656</v>
       </c>
       <c r="C37" t="n">
-        <v>69.0</v>
+        <v>10.352999687194824</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -611,14 +611,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>32.0</v>
+        <v>-38.637001037597656</v>
       </c>
       <c r="C38" t="n">
-        <v>22.0</v>
+        <v>-10.352999687194824</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -626,14 +626,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>45.0</v>
+        <v>-10.352999687194824</v>
       </c>
       <c r="C39" t="n">
-        <v>35.0</v>
+        <v>-38.637001037597656</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -641,14 +641,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>59.0</v>
+        <v>10.352999687194824</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0</v>
+        <v>-38.637001037597656</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -656,14 +656,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>5.0</v>
+        <v>38.637001037597656</v>
       </c>
       <c r="C41" t="n">
-        <v>6.0</v>
+        <v>-10.352999687194824</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -671,14 +671,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>57.95600128173828</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>15.529000282287598</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -686,14 +686,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>21.0</v>
+        <v>15.529000282287598</v>
       </c>
       <c r="C43" t="n">
-        <v>10.0</v>
+        <v>57.95600128173828</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -701,14 +701,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>-15.529000282287598</v>
       </c>
       <c r="C44" t="n">
-        <v>64.0</v>
+        <v>57.95600128173828</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -716,14 +716,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>30.0</v>
+        <v>-57.95600128173828</v>
       </c>
       <c r="C45" t="n">
-        <v>15.0</v>
+        <v>15.529000282287598</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -731,14 +731,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>39.0</v>
+        <v>-57.95600128173828</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0</v>
+        <v>-15.529000282287598</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -746,14 +746,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>32.0</v>
+        <v>-15.529000282287598</v>
       </c>
       <c r="C47" t="n">
-        <v>39.0</v>
+        <v>-57.95600128173828</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -761,14 +761,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>25.0</v>
+        <v>15.529000282287598</v>
       </c>
       <c r="C48" t="n">
-        <v>32.0</v>
+        <v>-57.95600128173828</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -776,14 +776,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>25.0</v>
+        <v>57.95600128173828</v>
       </c>
       <c r="C49" t="n">
-        <v>55.0</v>
+        <v>-15.529000282287598</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -791,14 +791,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>48.0</v>
+        <v>77.27400207519531</v>
       </c>
       <c r="C50" t="n">
-        <v>28.0</v>
+        <v>20.70599937438965</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -806,14 +806,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>56.0</v>
+        <v>20.70599937438965</v>
       </c>
       <c r="C51" t="n">
-        <v>37.0</v>
+        <v>77.27400207519531</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -821,13 +821,2008 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>30.0</v>
+        <v>-20.70599937438965</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0</v>
+        <v>77.27400207519531</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-77.27400207519531</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20.70599937438965</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-77.27400207519531</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-20.70599937438965</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-20.70599937438965</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-77.27400207519531</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20.70599937438965</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-77.27400207519531</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>77.27400207519531</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-20.70599937438965</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>96.59300231933594</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25.881999969482422</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>25.881999969482422</v>
+      </c>
+      <c r="C59" t="n">
+        <v>96.59300231933594</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-25.881999969482422</v>
+      </c>
+      <c r="C60" t="n">
+        <v>96.59300231933594</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-96.59300231933594</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25.881999969482422</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-96.59300231933594</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-25.881999969482422</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-25.881999969482422</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-96.59300231933594</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>25.881999969482422</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-96.59300231933594</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>96.59300231933594</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-25.881999969482422</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>115.91100311279297</v>
+      </c>
+      <c r="C66" t="n">
+        <v>31.058000564575195</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>31.058000564575195</v>
+      </c>
+      <c r="C67" t="n">
+        <v>115.91100311279297</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-31.058000564575195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>115.91100311279297</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-115.91100311279297</v>
+      </c>
+      <c r="C69" t="n">
+        <v>31.058000564575195</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-115.91100311279297</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-31.058000564575195</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-31.058000564575195</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-115.91100311279297</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>31.058000564575195</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-115.91100311279297</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>115.91100311279297</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-31.058000564575195</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>135.22999572753906</v>
+      </c>
+      <c r="C74" t="n">
+        <v>36.23500061035156</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>36.23500061035156</v>
+      </c>
+      <c r="C75" t="n">
+        <v>135.22999572753906</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-36.23500061035156</v>
+      </c>
+      <c r="C76" t="n">
+        <v>135.22999572753906</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-135.22999572753906</v>
+      </c>
+      <c r="C77" t="n">
+        <v>36.23500061035156</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-135.22999572753906</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-36.23500061035156</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-36.23500061035156</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-135.22999572753906</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>36.23500061035156</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-135.22999572753906</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>135.22999572753906</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-36.23500061035156</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>154.54800415039062</v>
+      </c>
+      <c r="C82" t="n">
+        <v>41.4109992980957</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>41.4109992980957</v>
+      </c>
+      <c r="C83" t="n">
+        <v>154.54800415039062</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-41.4109992980957</v>
+      </c>
+      <c r="C84" t="n">
+        <v>154.54800415039062</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-154.54800415039062</v>
+      </c>
+      <c r="C85" t="n">
+        <v>41.4109992980957</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-154.54800415039062</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-41.4109992980957</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-41.4109992980957</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-154.54800415039062</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>41.4109992980957</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-154.54800415039062</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>154.54800415039062</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-41.4109992980957</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>173.86700439453125</v>
+      </c>
+      <c r="C90" t="n">
+        <v>46.58700180053711</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>46.58700180053711</v>
+      </c>
+      <c r="C91" t="n">
+        <v>173.86700439453125</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-46.58700180053711</v>
+      </c>
+      <c r="C92" t="n">
+        <v>173.86700439453125</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-173.86700439453125</v>
+      </c>
+      <c r="C93" t="n">
+        <v>46.58700180053711</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-173.86700439453125</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-46.58700180053711</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-46.58700180053711</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-173.86700439453125</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>46.58700180053711</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-173.86700439453125</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>173.86700439453125</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-46.58700180053711</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>193.18499755859375</v>
+      </c>
+      <c r="C98" t="n">
+        <v>51.763999938964844</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>51.763999938964844</v>
+      </c>
+      <c r="C99" t="n">
+        <v>193.18499755859375</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-51.763999938964844</v>
+      </c>
+      <c r="C100" t="n">
+        <v>193.18499755859375</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-193.18499755859375</v>
+      </c>
+      <c r="C101" t="n">
+        <v>51.763999938964844</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-193.18499755859375</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-51.763999938964844</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-51.763999938964844</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-193.18499755859375</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>51.763999938964844</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-193.18499755859375</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>193.18499755859375</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-51.763999938964844</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>29.743000030517578</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.9159998893737793</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>27.715999603271484</v>
+      </c>
+      <c r="C107" t="n">
+        <v>11.480999946594238</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>11.480999946594238</v>
+      </c>
+      <c r="C108" t="n">
+        <v>27.715999603271484</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.9159998893737793</v>
+      </c>
+      <c r="C109" t="n">
+        <v>29.743000030517578</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-3.9159998893737793</v>
+      </c>
+      <c r="C110" t="n">
+        <v>29.743000030517578</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-11.480999946594238</v>
+      </c>
+      <c r="C111" t="n">
+        <v>27.715999603271484</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-27.715999603271484</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.480999946594238</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-29.743000030517578</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.9159998893737793</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-29.743000030517578</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-3.9159998893737793</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-27.715999603271484</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-11.480999946594238</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-11.480999946594238</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-27.715999603271484</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-3.9159998893737793</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-29.743000030517578</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.9159998893737793</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-29.743000030517578</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>11.480999946594238</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-27.715999603271484</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>27.715999603271484</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-11.480999946594238</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>29.743000030517578</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-3.9159998893737793</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>69.4010009765625</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.13700008392334</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>64.6719970703125</v>
+      </c>
+      <c r="C123" t="n">
+        <v>26.788000106811523</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>26.788000106811523</v>
+      </c>
+      <c r="C124" t="n">
+        <v>64.6719970703125</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.13700008392334</v>
+      </c>
+      <c r="C125" t="n">
+        <v>69.4010009765625</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-9.13700008392334</v>
+      </c>
+      <c r="C126" t="n">
+        <v>69.4010009765625</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-26.788000106811523</v>
+      </c>
+      <c r="C127" t="n">
+        <v>64.6719970703125</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-64.6719970703125</v>
+      </c>
+      <c r="C128" t="n">
+        <v>26.788000106811523</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-69.4010009765625</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.13700008392334</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-69.4010009765625</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-9.13700008392334</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-64.6719970703125</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-26.788000106811523</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-26.788000106811523</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-64.6719970703125</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-9.13700008392334</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-69.4010009765625</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.13700008392334</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-69.4010009765625</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>26.788000106811523</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-64.6719970703125</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>64.6719970703125</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-26.788000106811523</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>69.4010009765625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-9.13700008392334</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>109.05899810791016</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14.357999801635742</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>101.62699890136719</v>
+      </c>
+      <c r="C139" t="n">
+        <v>42.095001220703125</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>42.095001220703125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>101.62699890136719</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.357999801635742</v>
+      </c>
+      <c r="C141" t="n">
+        <v>109.05899810791016</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-14.357999801635742</v>
+      </c>
+      <c r="C142" t="n">
+        <v>109.05899810791016</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-42.095001220703125</v>
+      </c>
+      <c r="C143" t="n">
+        <v>101.62699890136719</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-101.62699890136719</v>
+      </c>
+      <c r="C144" t="n">
+        <v>42.095001220703125</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-109.05899810791016</v>
+      </c>
+      <c r="C145" t="n">
+        <v>14.357999801635742</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-109.05899810791016</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-14.357999801635742</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-101.62699890136719</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-42.095001220703125</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-42.095001220703125</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-101.62699890136719</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-14.357999801635742</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-109.05899810791016</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>14.357999801635742</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-109.05899810791016</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>42.095001220703125</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-101.62699890136719</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>101.62699890136719</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-42.095001220703125</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>109.05899810791016</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-14.357999801635742</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>148.7169952392578</v>
+      </c>
+      <c r="C154" t="n">
+        <v>19.57900047302246</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>138.58200073242188</v>
+      </c>
+      <c r="C155" t="n">
+        <v>57.40299987792969</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>57.40299987792969</v>
+      </c>
+      <c r="C156" t="n">
+        <v>138.58200073242188</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>19.57900047302246</v>
+      </c>
+      <c r="C157" t="n">
+        <v>148.7169952392578</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-19.57900047302246</v>
+      </c>
+      <c r="C158" t="n">
+        <v>148.7169952392578</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-57.40299987792969</v>
+      </c>
+      <c r="C159" t="n">
+        <v>138.58200073242188</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-138.58200073242188</v>
+      </c>
+      <c r="C160" t="n">
+        <v>57.40299987792969</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-148.7169952392578</v>
+      </c>
+      <c r="C161" t="n">
+        <v>19.57900047302246</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-148.7169952392578</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-19.57900047302246</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-138.58200073242188</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-57.40299987792969</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-57.40299987792969</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-138.58200073242188</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-19.57900047302246</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-148.7169952392578</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>19.57900047302246</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-148.7169952392578</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>57.40299987792969</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-138.58200073242188</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>138.58200073242188</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-57.40299987792969</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>148.7169952392578</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-19.57900047302246</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>188.375</v>
+      </c>
+      <c r="C170" t="n">
+        <v>24.799999237060547</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>175.53700256347656</v>
+      </c>
+      <c r="C171" t="n">
+        <v>72.70999908447266</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>72.70999908447266</v>
+      </c>
+      <c r="C172" t="n">
+        <v>175.53700256347656</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24.799999237060547</v>
+      </c>
+      <c r="C173" t="n">
+        <v>188.375</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-24.799999237060547</v>
+      </c>
+      <c r="C174" t="n">
+        <v>188.375</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-72.70999908447266</v>
+      </c>
+      <c r="C175" t="n">
+        <v>175.53700256347656</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-175.53700256347656</v>
+      </c>
+      <c r="C176" t="n">
+        <v>72.70999908447266</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-188.375</v>
+      </c>
+      <c r="C177" t="n">
+        <v>24.799999237060547</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-188.375</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-24.799999237060547</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-175.53700256347656</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-72.70999908447266</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-72.70999908447266</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-175.53700256347656</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-24.799999237060547</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-188.375</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>24.799999237060547</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-188.375</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>72.70999908447266</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-175.53700256347656</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>175.53700256347656</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-72.70999908447266</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>188.375</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-24.799999237060547</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -71,14 +71,14 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.0</v>
+        <v>12.805000305175781</v>
       </c>
       <c r="C2" t="n">
-        <v>22.0</v>
+        <v>1.8860000371932983</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -86,14 +86,14 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>36.0</v>
+        <v>18.21299934387207</v>
       </c>
       <c r="C3" t="n">
-        <v>26.0</v>
+        <v>1.3730000257492065</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -101,14 +101,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0</v>
+        <v>57.946998596191406</v>
       </c>
       <c r="C4" t="n">
-        <v>45.0</v>
+        <v>-48.77899932861328</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -116,14 +116,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>45.0</v>
+        <v>-52.42900085449219</v>
       </c>
       <c r="C5" t="n">
-        <v>35.0</v>
+        <v>-84.08799743652344</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -131,14 +131,14 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>55.0</v>
+        <v>60.797000885009766</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0</v>
+        <v>-32.59299850463867</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -146,14 +146,14 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>33.0</v>
+        <v>23.150999069213867</v>
       </c>
       <c r="C7" t="n">
-        <v>34.0</v>
+        <v>4.204999923706055</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,14 +161,14 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>50.0</v>
+        <v>25.385000228881836</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0</v>
+        <v>22.986000061035156</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -176,14 +176,14 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>55.0</v>
+        <v>25.51300048828125</v>
       </c>
       <c r="C9" t="n">
-        <v>45.0</v>
+        <v>-52.98500061035156</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -191,14 +191,14 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>-49.26100158691406</v>
       </c>
       <c r="C10" t="n">
-        <v>59.0</v>
+        <v>-41.71799850463867</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -206,14 +206,14 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>40.0</v>
+        <v>-37.56100082397461</v>
       </c>
       <c r="C11" t="n">
-        <v>66.0</v>
+        <v>-41.72999954223633</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -221,14 +221,14 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>55.0</v>
+        <v>-14.520000457763672</v>
       </c>
       <c r="C12" t="n">
-        <v>65.0</v>
+        <v>48.96200180053711</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -236,14 +236,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>35.0</v>
+        <v>41.229000091552734</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0</v>
+        <v>-24.5</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -251,14 +251,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>62.0</v>
+        <v>-21.863000869750977</v>
       </c>
       <c r="C14" t="n">
-        <v>35.0</v>
+        <v>0.9160000085830688</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -266,14 +266,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>62.0</v>
+        <v>-48.180999755859375</v>
       </c>
       <c r="C15" t="n">
-        <v>57.0</v>
+        <v>-16.284000396728516</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -281,14 +281,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>62.0</v>
+        <v>-7.776000022888184</v>
       </c>
       <c r="C16" t="n">
-        <v>24.0</v>
+        <v>44.347999572753906</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -296,14 +296,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0</v>
+        <v>20.801000595092773</v>
       </c>
       <c r="C17" t="n">
-        <v>36.0</v>
+        <v>10.760000228881836</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -311,14 +311,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>-29.711999893188477</v>
       </c>
       <c r="C18" t="n">
-        <v>44.0</v>
+        <v>-46.32600021362305</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -326,14 +326,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>9.0</v>
+        <v>-20.202999114990234</v>
       </c>
       <c r="C19" t="n">
-        <v>56.0</v>
+        <v>-59.56399917602539</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -341,14 +341,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>62.0</v>
+        <v>-87.0790023803711</v>
       </c>
       <c r="C20" t="n">
-        <v>48.0</v>
+        <v>-52.89899826049805</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -356,14 +356,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>66.0</v>
+        <v>3.0460000038146973</v>
       </c>
       <c r="C21" t="n">
-        <v>14.0</v>
+        <v>-6.304999828338623</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -371,14 +371,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>44.0</v>
+        <v>11.864999771118164</v>
       </c>
       <c r="C22" t="n">
-        <v>13.0</v>
+        <v>5.261000156402588</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -386,14 +386,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>26.0</v>
+        <v>-24.07200050354004</v>
       </c>
       <c r="C23" t="n">
-        <v>13.0</v>
+        <v>-55.926998138427734</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -401,14 +401,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>-22.80299949645996</v>
       </c>
       <c r="C24" t="n">
-        <v>28.0</v>
+        <v>5.6579999923706055</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -416,14 +416,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>-51.90399932861328</v>
       </c>
       <c r="C25" t="n">
-        <v>43.0</v>
+        <v>9.411999702453613</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -431,14 +431,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>17.0</v>
+        <v>12.732000350952148</v>
       </c>
       <c r="C26" t="n">
-        <v>64.0</v>
+        <v>-40.96699905395508</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -446,14 +446,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>41.0</v>
+        <v>-30.988000869750977</v>
       </c>
       <c r="C27" t="n">
-        <v>46.0</v>
+        <v>7.6539998054504395</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -461,14 +461,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>55.0</v>
+        <v>37.512001037597656</v>
       </c>
       <c r="C28" t="n">
-        <v>34.0</v>
+        <v>0.4580000042915344</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -476,14 +476,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>35.0</v>
+        <v>2.9539999961853027</v>
       </c>
       <c r="C29" t="n">
-        <v>16.0</v>
+        <v>-8.562999725341797</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -491,14 +491,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>52.0</v>
+        <v>0.5490000247955322</v>
       </c>
       <c r="C30" t="n">
-        <v>26.0</v>
+        <v>3.6440000534057617</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -506,14 +506,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>43.0</v>
+        <v>-52.48400115966797</v>
       </c>
       <c r="C31" t="n">
-        <v>26.0</v>
+        <v>9.711000442504883</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -521,14 +521,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0</v>
+        <v>33.93600082397461</v>
       </c>
       <c r="C32" t="n">
-        <v>76.0</v>
+        <v>-48.71799850463867</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -536,14 +536,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>22.0</v>
+        <v>-13.128999710083008</v>
       </c>
       <c r="C33" t="n">
-        <v>53.0</v>
+        <v>-53.60100173950195</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -551,14 +551,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>26.0</v>
+        <v>-99.59100341796875</v>
       </c>
       <c r="C34" t="n">
-        <v>29.0</v>
+        <v>23.30299949645996</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -566,14 +566,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>50.0</v>
+        <v>6.439000129699707</v>
       </c>
       <c r="C35" t="n">
-        <v>40.0</v>
+        <v>-3.5160000324249268</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -581,14 +581,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>55.0</v>
+        <v>-14.031999588012695</v>
       </c>
       <c r="C36" t="n">
-        <v>50.0</v>
+        <v>-19.81800079345703</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -596,14 +596,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>54.0</v>
+        <v>-24.677000045776367</v>
       </c>
       <c r="C37" t="n">
-        <v>10.0</v>
+        <v>16.607999801635742</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -611,14 +611,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>60.0</v>
+        <v>-10.260000228881836</v>
       </c>
       <c r="C38" t="n">
-        <v>15.0</v>
+        <v>-81.76899719238281</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -626,14 +626,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>47.0</v>
+        <v>35.858001708984375</v>
       </c>
       <c r="C39" t="n">
-        <v>66.0</v>
+        <v>5.5970001220703125</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -641,14 +641,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>30.0</v>
+        <v>-11.602999687194824</v>
       </c>
       <c r="C40" t="n">
-        <v>60.0</v>
+        <v>42.90800094604492</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -656,14 +656,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>30.0</v>
+        <v>-34.6619987487793</v>
       </c>
       <c r="C41" t="n">
-        <v>50.0</v>
+        <v>-15.465999603271484</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -671,14 +671,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>12.0</v>
+        <v>66.85199737548828</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>1.1349999904632568</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -686,14 +686,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>15.0</v>
+        <v>6.866000175476074</v>
       </c>
       <c r="C43" t="n">
-        <v>14.0</v>
+        <v>-1.4160000085830688</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -701,14 +701,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>16.0</v>
+        <v>1.659999966621399</v>
       </c>
       <c r="C44" t="n">
-        <v>19.0</v>
+        <v>-2.2339999675750732</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -716,14 +716,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>21.0</v>
+        <v>37.56100082397461</v>
       </c>
       <c r="C45" t="n">
-        <v>48.0</v>
+        <v>11.449999809265137</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -731,14 +731,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>50.0</v>
+        <v>51.672000885009766</v>
       </c>
       <c r="C46" t="n">
-        <v>30.0</v>
+        <v>-26.343000411987305</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -746,14 +746,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>51.0</v>
+        <v>19.024999618530273</v>
       </c>
       <c r="C47" t="n">
-        <v>42.0</v>
+        <v>-10.888999938964844</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -761,14 +761,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>50.0</v>
+        <v>-37.981998443603516</v>
       </c>
       <c r="C48" t="n">
-        <v>15.0</v>
+        <v>-6.360000133514404</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -776,14 +776,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>48.0</v>
+        <v>-56.5369987487793</v>
       </c>
       <c r="C49" t="n">
-        <v>21.0</v>
+        <v>-42.33399963378906</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -791,14 +791,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0</v>
+        <v>1.0989999771118164</v>
       </c>
       <c r="C50" t="n">
-        <v>38.0</v>
+        <v>-14.62399959564209</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -806,14 +806,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>15.0</v>
+        <v>-56.237998962402344</v>
       </c>
       <c r="C51" t="n">
-        <v>56.0</v>
+        <v>-3.0759999752044678</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -821,14 +821,14 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>29.0</v>
+        <v>-23.66900062561035</v>
       </c>
       <c r="C52" t="n">
-        <v>39.0</v>
+        <v>-15.288999557495117</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
@@ -836,14 +836,14 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>54.0</v>
+        <v>-34.277000427246094</v>
       </c>
       <c r="C53" t="n">
-        <v>38.0</v>
+        <v>-1.409999966621399</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -851,14 +851,14 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="n">
-        <v>55.0</v>
+        <v>-64.1780014038086</v>
       </c>
       <c r="C54" t="n">
-        <v>57.0</v>
+        <v>63.8120002746582</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
@@ -866,14 +866,14 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="n">
-        <v>67.0</v>
+        <v>-47.08300018310547</v>
       </c>
       <c r="C55" t="n">
-        <v>41.0</v>
+        <v>-20.38599967956543</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -881,14 +881,14 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>10.0</v>
+        <v>-33.709999084472656</v>
       </c>
       <c r="C56" t="n">
-        <v>70.0</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57">
@@ -896,14 +896,14 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>6.0</v>
+        <v>34.290000915527344</v>
       </c>
       <c r="C57" t="n">
-        <v>25.0</v>
+        <v>26.0310001373291</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58">
@@ -911,14 +911,14 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="n">
-        <v>65.0</v>
+        <v>-38.861000061035156</v>
       </c>
       <c r="C58" t="n">
-        <v>27.0</v>
+        <v>42.11399841308594</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
@@ -926,14 +926,14 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>40.0</v>
+        <v>-92.73100280761719</v>
       </c>
       <c r="C59" t="n">
-        <v>60.0</v>
+        <v>44.8849983215332</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
@@ -941,14 +941,14 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>70.0</v>
+        <v>23.632999420166016</v>
       </c>
       <c r="C60" t="n">
-        <v>64.0</v>
+        <v>27.64299964904785</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
@@ -956,14 +956,14 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>64.0</v>
+        <v>-67.13899993896484</v>
       </c>
       <c r="C61" t="n">
-        <v>4.0</v>
+        <v>-67.0780029296875</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62">
@@ -971,14 +971,14 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>36.0</v>
+        <v>25.72599983215332</v>
       </c>
       <c r="C62" t="n">
-        <v>6.0</v>
+        <v>-25.836000442504883</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63">
@@ -986,14 +986,14 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>30.0</v>
+        <v>-40.98500061035156</v>
       </c>
       <c r="C63" t="n">
-        <v>20.0</v>
+        <v>-16.895000457763672</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64">
@@ -1001,14 +1001,14 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="n">
-        <v>20.0</v>
+        <v>77.00800323486328</v>
       </c>
       <c r="C64" t="n">
-        <v>30.0</v>
+        <v>-6.0970001220703125</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
@@ -1016,14 +1016,14 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>15.0</v>
+        <v>-54.810001373291016</v>
       </c>
       <c r="C65" t="n">
-        <v>5.0</v>
+        <v>-1.934999942779541</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
@@ -1031,14 +1031,14 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="n">
-        <v>50.0</v>
+        <v>-53.94300079345703</v>
       </c>
       <c r="C66" t="n">
-        <v>70.0</v>
+        <v>-29.663000106811523</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="67">
@@ -1046,14 +1046,14 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="n">
-        <v>57.0</v>
+        <v>16.089000701904297</v>
       </c>
       <c r="C67" t="n">
-        <v>72.0</v>
+        <v>-27.886999130249023</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="68">
@@ -1061,14 +1061,14 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="n">
-        <v>45.0</v>
+        <v>-59.43600082397461</v>
       </c>
       <c r="C68" t="n">
-        <v>42.0</v>
+        <v>36.48699951171875</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="69">
@@ -1076,14 +1076,14 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>38.0</v>
+        <v>34.472999572753906</v>
       </c>
       <c r="C69" t="n">
-        <v>33.0</v>
+        <v>25.391000747680664</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
@@ -1091,14 +1091,14 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>50.0</v>
+        <v>-9.282999992370605</v>
       </c>
       <c r="C70" t="n">
-        <v>4.0</v>
+        <v>-6.689000129699707</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
@@ -1106,14 +1106,14 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="n">
-        <v>66.0</v>
+        <v>-85.55899810791016</v>
       </c>
       <c r="C71" t="n">
-        <v>8.0</v>
+        <v>-20.476999282836914</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
@@ -1121,14 +1121,14 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="n">
-        <v>59.0</v>
+        <v>29.523000717163086</v>
       </c>
       <c r="C72" t="n">
-        <v>5.0</v>
+        <v>18.347000122070312</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="73">
@@ -1136,14 +1136,14 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>35.0</v>
+        <v>27.81399917602539</v>
       </c>
       <c r="C73" t="n">
-        <v>60.0</v>
+        <v>6.51200008392334</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="74">
@@ -1151,14 +1151,14 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="n">
-        <v>27.0</v>
+        <v>42.1510009765625</v>
       </c>
       <c r="C74" t="n">
-        <v>24.0</v>
+        <v>-25.579999923706055</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -1166,14 +1166,14 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="n">
-        <v>40.0</v>
+        <v>82.2020034790039</v>
       </c>
       <c r="C75" t="n">
-        <v>20.0</v>
+        <v>85.8280029296875</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1181,14 +1181,3209 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>40.0</v>
+        <v>-47.76599884033203</v>
       </c>
       <c r="C76" t="n">
-        <v>37.0</v>
+        <v>-35.59000015258789</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22.014999389648438</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-20.349000930786133</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-55.75600051879883</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-33.4900016784668</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>62.00600051879883</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.4529999494552612</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25.548999786376953</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.7960000038146973</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-43.37200164794922</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-7.379000186920166</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>60.297000885009766</v>
+      </c>
+      <c r="C82" t="n">
+        <v>52.637001037597656</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-96.15499877929688</v>
+      </c>
+      <c r="C83" t="n">
+        <v>34.099998474121094</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-32.805999755859375</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3.8450000286102295</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-47.82699966430664</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-45.202999114990234</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-31.128000259399414</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-93.8479995727539</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-17.010000228881836</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-21.85700035095215</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-8.38599967956543</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.2639999389648438</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>35.83399963378906</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.147000312805176</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>29.315000534057617</v>
+      </c>
+      <c r="C90" t="n">
+        <v>54.46799850463867</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>48.35200119018555</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-8.782999992370605</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2.930000066757202</v>
+      </c>
+      <c r="C92" t="n">
+        <v>27.038999557495117</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-16.6200008392334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-55.388999938964844</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-40.85100173950195</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-47.742000579833984</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-12.878000259399414</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.0390000343322754</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-51.7760009765625</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.281000137329102</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-32.922000885009766</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23.827999114990234</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>13.982999801635742</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-34.520999908447266</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-35.83399963378906</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-23.833999633789062</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>91.85800170898438</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.541999816894531</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-28.441999435424805</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-34.18000030517578</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>33.84400177001953</v>
+      </c>
+      <c r="C102" t="n">
+        <v>27.875</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>98.43099975585938</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.347999572753906</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-57.750999450683594</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-27.753000259399414</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-43.88999938964844</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.006999969482422</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>37.584999084472656</v>
+      </c>
+      <c r="C106" t="n">
+        <v>49.768001556396484</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-3.687000036239624</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.373000144958496</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-98.24199676513672</v>
+      </c>
+      <c r="C108" t="n">
+        <v>61.65800094604492</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-23.559999465942383</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-32.52000045776367</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.979999542236328</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-18.108999252319336</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>43.915000915527344</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.984999895095825</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>71.50900268554688</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.652000427246094</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-43.01100158691406</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-38.70199966430664</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-83.9540023803711</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.178999900817871</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.09000015258789</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-40.94200134277344</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.17300033569336</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-13.329999923706055</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-86.10199737548828</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-59.80799865722656</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-22.344999313354492</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-78.27799987792969</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-38.72700119018555</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-33.5880012512207</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.2269999980926514</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-28.667999267578125</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>81.3290023803711</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-44.24399948120117</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>51.90399932861328</v>
+      </c>
+      <c r="C122" t="n">
+        <v>19.891000747680664</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-34.972999572753906</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-27.856000900268555</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-51.483001708984375</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-23.24799919128418</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.6470000147819519</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-46.05699920654297</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>68.21900177001953</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-66.98600006103516</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-15.14900016784668</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-25.48200035095215</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22.41200065612793</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-34.375</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>36.17599868774414</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-10.430999755859375</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-23.638999938964844</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-47.680999755859375</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-14.722000122070312</v>
+      </c>
+      <c r="C131" t="n">
+        <v>32.683998107910156</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16.820999145507812</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-12.720000267028809</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>93.37799835205078</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.003999710083008</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>40.34400177001953</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-24.176000595092773</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.53000020980835</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4.901000022888184</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-78.01499938964844</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.2699999809265137</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>51.569000244140625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-45.67300033569336</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>49.249000549316406</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-30.895999908447266</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-62.19499969482422</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-21.39900016784668</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-5.047999858856201</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.306000232696533</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.7269999980926514</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-70.22100067138672</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.3609999418258667</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-3.563999891281128</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-15.520999908447266</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16.424999237060547</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-31.604000091552734</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-60.9379997253418</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-46.99700164794922</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-55.560001373291016</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.3010001182556152</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.535999774932861</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-30.327999114990234</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.5799999833106995</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-16.820999145507812</v>
+      </c>
+      <c r="C148" t="n">
+        <v>17.663999557495117</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>52.654998779296875</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.034000396728516</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-11.993000030517578</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-83.77100372314453</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>41.63199996948242</v>
+      </c>
+      <c r="C151" t="n">
+        <v>43.04800033569336</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8.508000373840332</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-2.5390000343322754</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>31.511999130249023</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-8.977999687194824</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-3.3389999866485596</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-36.24300003051758</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-26.378999710083008</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13.776000022888184</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>28.43000030517578</v>
+      </c>
+      <c r="C156" t="n">
+        <v>10.571000099182129</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.974999904632568</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.288999557495117</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-32.1349983215332</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-45.06800079345703</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>31.097000122070312</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-7.915999889373779</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>28.197999954223633</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-29.7549991607666</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-39.61199951171875</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-33.59400177001953</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-19.219999313354492</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-5.132999897003174</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-10.11400032043457</v>
+      </c>
+      <c r="C163" t="n">
+        <v>69.97699737548828</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.893999099731445</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-44.347999572753906</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-34.74100112915039</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-44.95199966430664</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-77.73400115966797</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-23.749000549316406</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-56.012001037597656</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>69.072998046875</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-97.125</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.170000076293945</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-59.86899948120117</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>47.3390007019043</v>
+      </c>
+      <c r="C170" t="n">
+        <v>17.364999771118164</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-4.705999851226807</v>
+      </c>
+      <c r="C171" t="n">
+        <v>14.055999755859375</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-52.374000549316406</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-50.24399948120117</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>39.21500015258789</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-29.773000717163086</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-42.316001892089844</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-60.60200119018555</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>19.135000228881836</v>
+      </c>
+      <c r="C175" t="n">
+        <v>41.150001525878906</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-54.70600128173828</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-17.59600067138672</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.737000465393066</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-83.1729965209961</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-40.582000732421875</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-53.24700164794922</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-6.421000003814697</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.966999053955078</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-31.26799964904785</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-34.612998962402344</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-3.6679999828338623</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-26.868000030517578</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>13.409000396728516</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-22.302000045776367</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-95.89199829101562</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-86.3219985961914</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>88.98300170898438</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-53.387001037597656</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-55.04800033569336</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-32.53799819946289</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.850000381469727</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-10.027999877929688</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>40.917999267578125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-36.09000015258789</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-58.349998474121094</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.814000129699707</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-52.1609992980957</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-74.7249984741211</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-66.77200317382812</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-34.94300079345703</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-33.374000549316406</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-62.02399826049805</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-8.64900016784668</v>
+      </c>
+      <c r="C192" t="n">
+        <v>31.70800018310547</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-26.166000366210938</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-56.152000427246094</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-39.874000549316406</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-53.375</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>71.64299774169922</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-36.98099899291992</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-96.92400360107422</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.41100025177002</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-2.9110000133514404</v>
+      </c>
+      <c r="C197" t="n">
+        <v>36.20000076293945</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-53.25299835205078</v>
+      </c>
+      <c r="C198" t="n">
+        <v>14.098999977111816</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67.31600189208984</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-39.73400115966797</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-6.525000095367432</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.975000381469727</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16.424999237060547</v>
+      </c>
+      <c r="C201" t="n">
+        <v>33.22100067138672</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-19.06100082397461</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-56.92100143432617</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>25.18899917602539</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-21.045000076293945</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37.854000091552734</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-5.52400016784668</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-16.479000091552734</v>
+      </c>
+      <c r="C205" t="n">
+        <v>48.65700149536133</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.3440001010894775</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-16.516000747680664</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-48.62099838256836</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-12.390000343322754</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-42.62099838256836</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-50.00600051879883</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16.016000747680664</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.168999671936035</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-80.40799713134766</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-60.58300018310547</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-95.06800079345703</v>
+      </c>
+      <c r="C211" t="n">
+        <v>44.292999267578125</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-6.885000228881836</v>
+      </c>
+      <c r="C212" t="n">
+        <v>24.884000778198242</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-4.802999973297119</v>
+      </c>
+      <c r="C213" t="n">
+        <v>21.673999786376953</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7.0370001792907715</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-45.33700180053711</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>31.292999267578125</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-39.904998779296875</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>14.984000205993652</v>
+      </c>
+      <c r="C216" t="n">
+        <v>26.172000885009766</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>33.202999114990234</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-52.28900146484375</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-59.277000427246094</v>
+      </c>
+      <c r="C218" t="n">
+        <v>39.66699981689453</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="n">
+        <v>30.054000854492188</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-36.823001861572266</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9.35099983215332</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-39.04399871826172</v>
+      </c>
+      <c r="D220"/>
+      <c r="E220" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-10.651000022888184</v>
+      </c>
+      <c r="C221" t="n">
+        <v>54.430999755859375</v>
+      </c>
+      <c r="D221"/>
+      <c r="E221" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>20.856000900268555</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-26.46500015258789</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="n">
+        <v>19.617000579833984</v>
+      </c>
+      <c r="C223" t="n">
+        <v>17.864999771118164</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-36.98099899291992</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-92.94999694824219</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-3.759999990463257</v>
+      </c>
+      <c r="C225" t="n">
+        <v>59.875</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>11.682000160217285</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-63.33599853515625</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.4679999351501465</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-36.132999420166016</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>47.040000915527344</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-41.25400161743164</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>29.937999725341797</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-58.709999084472656</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-70.56900024414062</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-7.0370001792907715</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="n">
+        <v>56.262001037597656</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.819000005722046</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>46.209999084472656</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-53.52199935913086</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.366000175476074</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-14.263999938964844</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-34.540000915527344</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-39.50199890136719</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-50.5369987487793</v>
+      </c>
+      <c r="C235" t="n">
+        <v>28.35700035095215</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-61.444000244140625</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10.901000022888184</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-30.822999954223633</v>
+      </c>
+      <c r="C237" t="n">
+        <v>17.902000427246094</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>49.65800094604492</v>
+      </c>
+      <c r="C238" t="n">
+        <v>24.4689998626709</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-69.7750015258789</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-41.40599822998047</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-18.93899917602539</v>
+      </c>
+      <c r="C240" t="n">
+        <v>57.689998626708984</v>
+      </c>
+      <c r="D240"/>
+      <c r="E240" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-22.448999404907227</v>
+      </c>
+      <c r="C241" t="n">
+        <v>15.770999908447266</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-7.598999977111816</v>
+      </c>
+      <c r="C242" t="n">
+        <v>37.029998779296875</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>27.434999465942383</v>
+      </c>
+      <c r="C243" t="n">
+        <v>17.554000854492188</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>45.5260009765625</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-5.126999855041504</v>
+      </c>
+      <c r="D244"/>
+      <c r="E244" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-33.55099868774414</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-25.586000442504883</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-4.644999980926514</v>
+      </c>
+      <c r="C246" t="n">
+        <v>53.75400161743164</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-41.11899948120117</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-13.361000061035156</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="n">
+        <v>23.010000228881836</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-45.702999114990234</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>17.229999542236328</v>
+      </c>
+      <c r="C249" t="n">
+        <v>5.0960001945495605</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-6.817999839782715</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-19.87299919128418</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="n">
+        <v>52.965999603271484</v>
+      </c>
+      <c r="C251" t="n">
+        <v>51.40999984741211</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-28.66200065612793</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-50.939998626708984</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="n">
+        <v>69.68399810791016</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-51.52000045776367</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="n">
+        <v>36.88399887084961</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-17.371000289916992</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-19.659000396728516</v>
+      </c>
+      <c r="C255" t="n">
+        <v>42.03499984741211</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="n">
+        <v>72.125</v>
+      </c>
+      <c r="C256" t="n">
+        <v>65.40499877929688</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-71.36799621582031</v>
+      </c>
+      <c r="C257" t="n">
+        <v>59.862998962402344</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="n">
+        <v>18.316999435424805</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-37.75</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="n">
+        <v>18.121000289916992</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4819999933242798</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-1.1050000190734863</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-30.676000595092773</v>
+      </c>
+      <c r="D260"/>
+      <c r="E260" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-44.57400131225586</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-44.05500030517578</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-28.058000564575195</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-59.43600082397461</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-7.953000068664551</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4.638999938964844</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-37.36600112915039</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-28.527999877929688</v>
+      </c>
+      <c r="D264"/>
+      <c r="E264" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.388000011444092</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-38.48899841308594</v>
+      </c>
+      <c r="D265"/>
+      <c r="E265" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-44.59199905395508</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-35.33300018310547</v>
+      </c>
+      <c r="D266"/>
+      <c r="E266" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-56.7140007019043</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-39.25199890136719</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="n">
+        <v>13.45199966430664</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-32.159000396728516</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-20.343000411987305</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-11.182000160217285</v>
+      </c>
+      <c r="D269"/>
+      <c r="E269" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.436000108718872</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-52.73400115966797</v>
+      </c>
+      <c r="D270"/>
+      <c r="E270" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="n">
+        <v>40.57600021362305</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-54.492000579833984</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="n">
+        <v>31.95199966430664</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-25.42099952697754</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-57.433998107910156</v>
+      </c>
+      <c r="C273" t="n">
+        <v>38.525001525878906</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>47.5099983215332</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-42.03499984741211</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-28.14299964904785</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-41.61399841308594</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-2.257999897003174</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-5.078000068664551</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-27.16699981689453</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-27.93600082397461</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-24.04800033569336</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-47.19200134277344</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-77.52100372314453</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-55.08399963378906</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-62.0359992980957</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-43.43899917602539</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-71.93599700927734</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-20.15999984741211</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-66.50399780273438</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-39.78900146484375</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14.586999893188477</v>
+      </c>
+      <c r="C283" t="n">
+        <v>48.444000244140625</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="n">
+        <v>31.365999221801758</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-29.461999893188477</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="n">
+        <v>6.51200008392334</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-46.124000549316406</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9.649999618530273</v>
+      </c>
+      <c r="C286" t="n">
+        <v>39.507999420166016</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="n">
+        <v>16.040000915527344</v>
+      </c>
+      <c r="C287" t="n">
+        <v>16.680999755859375</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>7.744999885559082</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-75.37799835205078</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-27.17300033569336</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-4.461999893188477</v>
+      </c>
+      <c r="D289"/>
+      <c r="E289" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -71,14 +71,14 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.0</v>
+        <v>12.805000305175781</v>
       </c>
       <c r="C2" t="n">
-        <v>52.0</v>
+        <v>1.8860000371932983</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -86,14 +86,14 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>49.0</v>
+        <v>18.21299934387207</v>
       </c>
       <c r="C3" t="n">
-        <v>49.0</v>
+        <v>1.3730000257492065</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -101,14 +101,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>52.0</v>
+        <v>57.946998596191406</v>
       </c>
       <c r="C4" t="n">
-        <v>64.0</v>
+        <v>-48.77899932861328</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -116,14 +116,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>20.0</v>
+        <v>-52.42900085449219</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>-84.08799743652344</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -131,14 +131,14 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0</v>
+        <v>60.797000885009766</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>-32.59299850463867</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -146,14 +146,14 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0</v>
+        <v>23.150999069213867</v>
       </c>
       <c r="C7" t="n">
-        <v>47.0</v>
+        <v>4.204999923706055</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,14 +161,14 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0</v>
+        <v>25.385000228881836</v>
       </c>
       <c r="C8" t="n">
-        <v>63.0</v>
+        <v>22.986000061035156</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -176,14 +176,14 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0</v>
+        <v>25.51300048828125</v>
       </c>
       <c r="C9" t="n">
-        <v>62.0</v>
+        <v>-52.98500061035156</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -191,14 +191,14 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>52.0</v>
+        <v>-49.26100158691406</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>-41.71799850463867</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -206,14 +206,14 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0</v>
+        <v>-37.56100082397461</v>
       </c>
       <c r="C11" t="n">
-        <v>21.0</v>
+        <v>-41.72999954223633</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -221,14 +221,14 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>-14.520000457763672</v>
       </c>
       <c r="C12" t="n">
-        <v>41.0</v>
+        <v>48.96200180053711</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -236,14 +236,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0</v>
+        <v>41.229000091552734</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0</v>
+        <v>-24.5</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -251,14 +251,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>-21.863000869750977</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>0.9160000085830688</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -266,14 +266,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0</v>
+        <v>-48.180999755859375</v>
       </c>
       <c r="C15" t="n">
-        <v>42.0</v>
+        <v>-16.284000396728516</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -281,14 +281,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>-7.776000022888184</v>
       </c>
       <c r="C16" t="n">
-        <v>16.0</v>
+        <v>44.347999572753906</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -296,14 +296,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>52.0</v>
+        <v>20.801000595092773</v>
       </c>
       <c r="C17" t="n">
-        <v>41.0</v>
+        <v>10.760000228881836</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -311,14 +311,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>27.0</v>
+        <v>-29.711999893188477</v>
       </c>
       <c r="C18" t="n">
-        <v>23.0</v>
+        <v>-46.32600021362305</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -326,14 +326,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>17.0</v>
+        <v>-20.202999114990234</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0</v>
+        <v>-59.56399917602539</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -341,14 +341,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>13.0</v>
+        <v>-87.0790023803711</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0</v>
+        <v>-52.89899826049805</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -356,14 +356,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>57.0</v>
+        <v>3.0460000038146973</v>
       </c>
       <c r="C21" t="n">
-        <v>58.0</v>
+        <v>-6.304999828338623</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -371,14 +371,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>62.0</v>
+        <v>11.864999771118164</v>
       </c>
       <c r="C22" t="n">
-        <v>42.0</v>
+        <v>5.261000156402588</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -386,14 +386,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>42.0</v>
+        <v>-24.07200050354004</v>
       </c>
       <c r="C23" t="n">
-        <v>57.0</v>
+        <v>-55.926998138427734</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -401,14 +401,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>16.0</v>
+        <v>-22.80299949645996</v>
       </c>
       <c r="C24" t="n">
-        <v>57.0</v>
+        <v>5.6579999923706055</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -416,14 +416,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>-51.90399932861328</v>
       </c>
       <c r="C25" t="n">
-        <v>52.0</v>
+        <v>9.411999702453613</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -431,14 +431,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>12.732000350952148</v>
       </c>
       <c r="C26" t="n">
-        <v>38.0</v>
+        <v>-40.96699905395508</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -446,14 +446,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>27.0</v>
+        <v>-30.988000869750977</v>
       </c>
       <c r="C27" t="n">
-        <v>68.0</v>
+        <v>7.6539998054504395</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -461,14 +461,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0</v>
+        <v>37.512001037597656</v>
       </c>
       <c r="C28" t="n">
-        <v>48.0</v>
+        <v>0.4580000042915344</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -476,14 +476,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>43.0</v>
+        <v>2.9539999961853027</v>
       </c>
       <c r="C29" t="n">
-        <v>67.0</v>
+        <v>-8.562999725341797</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -491,14 +491,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>58.0</v>
+        <v>0.5490000247955322</v>
       </c>
       <c r="C30" t="n">
-        <v>48.0</v>
+        <v>3.6440000534057617</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -506,14 +506,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>58.0</v>
+        <v>-52.48400115966797</v>
       </c>
       <c r="C31" t="n">
-        <v>27.0</v>
+        <v>9.711000442504883</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -521,14 +521,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>37.0</v>
+        <v>33.93600082397461</v>
       </c>
       <c r="C32" t="n">
-        <v>69.0</v>
+        <v>-48.71799850463867</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -536,14 +536,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>38.0</v>
+        <v>-13.128999710083008</v>
       </c>
       <c r="C33" t="n">
-        <v>46.0</v>
+        <v>-53.60100173950195</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -551,14 +551,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>46.0</v>
+        <v>-99.59100341796875</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0</v>
+        <v>23.30299949645996</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -566,14 +566,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>61.0</v>
+        <v>6.439000129699707</v>
       </c>
       <c r="C35" t="n">
-        <v>33.0</v>
+        <v>-3.5160000324249268</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -581,14 +581,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>62.0</v>
+        <v>-14.031999588012695</v>
       </c>
       <c r="C36" t="n">
-        <v>63.0</v>
+        <v>-19.81800079345703</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -596,14 +596,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>63.0</v>
+        <v>-24.677000045776367</v>
       </c>
       <c r="C37" t="n">
-        <v>69.0</v>
+        <v>16.607999801635742</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -611,14 +611,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>32.0</v>
+        <v>-10.260000228881836</v>
       </c>
       <c r="C38" t="n">
-        <v>22.0</v>
+        <v>-81.76899719238281</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -626,14 +626,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>45.0</v>
+        <v>35.858001708984375</v>
       </c>
       <c r="C39" t="n">
-        <v>35.0</v>
+        <v>5.5970001220703125</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -641,14 +641,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>59.0</v>
+        <v>-11.602999687194824</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0</v>
+        <v>42.90800094604492</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -656,14 +656,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>5.0</v>
+        <v>-34.6619987487793</v>
       </c>
       <c r="C41" t="n">
-        <v>6.0</v>
+        <v>-15.465999603271484</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -671,14 +671,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>66.85199737548828</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>1.1349999904632568</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -686,14 +686,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>21.0</v>
+        <v>6.866000175476074</v>
       </c>
       <c r="C43" t="n">
-        <v>10.0</v>
+        <v>-1.4160000085830688</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -701,14 +701,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>1.659999966621399</v>
       </c>
       <c r="C44" t="n">
-        <v>64.0</v>
+        <v>-2.2339999675750732</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -716,14 +716,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>30.0</v>
+        <v>37.56100082397461</v>
       </c>
       <c r="C45" t="n">
-        <v>15.0</v>
+        <v>11.449999809265137</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -731,14 +731,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>39.0</v>
+        <v>51.672000885009766</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0</v>
+        <v>-26.343000411987305</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -746,14 +746,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>32.0</v>
+        <v>19.024999618530273</v>
       </c>
       <c r="C47" t="n">
-        <v>39.0</v>
+        <v>-10.888999938964844</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -761,14 +761,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>25.0</v>
+        <v>-37.981998443603516</v>
       </c>
       <c r="C48" t="n">
-        <v>32.0</v>
+        <v>-6.360000133514404</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -776,14 +776,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>25.0</v>
+        <v>-56.5369987487793</v>
       </c>
       <c r="C49" t="n">
-        <v>55.0</v>
+        <v>-42.33399963378906</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -791,14 +791,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>48.0</v>
+        <v>1.0989999771118164</v>
       </c>
       <c r="C50" t="n">
-        <v>28.0</v>
+        <v>-14.62399959564209</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -806,14 +806,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>56.0</v>
+        <v>-56.237998962402344</v>
       </c>
       <c r="C51" t="n">
-        <v>37.0</v>
+        <v>-3.0759999752044678</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -821,13 +821,3568 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>30.0</v>
+        <v>-23.66900062561035</v>
       </c>
       <c r="C52" t="n">
-        <v>40.0</v>
+        <v>-15.288999557495117</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-34.277000427246094</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-1.409999966621399</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-64.1780014038086</v>
+      </c>
+      <c r="C54" t="n">
+        <v>63.8120002746582</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-47.08300018310547</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-20.38599967956543</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-33.709999084472656</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.380000114440918</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>34.290000915527344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>26.0310001373291</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-38.861000061035156</v>
+      </c>
+      <c r="C58" t="n">
+        <v>42.11399841308594</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-92.73100280761719</v>
+      </c>
+      <c r="C59" t="n">
+        <v>44.8849983215332</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>23.632999420166016</v>
+      </c>
+      <c r="C60" t="n">
+        <v>27.64299964904785</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-67.13899993896484</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-67.0780029296875</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>25.72599983215332</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-25.836000442504883</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-40.98500061035156</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-16.895000457763672</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>77.00800323486328</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-6.0970001220703125</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-54.810001373291016</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.934999942779541</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-53.94300079345703</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-29.663000106811523</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>16.089000701904297</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-27.886999130249023</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-59.43600082397461</v>
+      </c>
+      <c r="C68" t="n">
+        <v>36.48699951171875</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34.472999572753906</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25.391000747680664</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-9.282999992370605</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-6.689000129699707</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-85.55899810791016</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-20.476999282836914</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>29.523000717163086</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18.347000122070312</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>27.81399917602539</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.51200008392334</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>42.1510009765625</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-25.579999923706055</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>82.2020034790039</v>
+      </c>
+      <c r="C75" t="n">
+        <v>85.8280029296875</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-47.76599884033203</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-35.59000015258789</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>22.014999389648438</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-20.349000930786133</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-55.75600051879883</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-33.4900016784668</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>62.00600051879883</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.4529999494552612</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25.548999786376953</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-3.7960000038146973</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-43.37200164794922</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-7.379000186920166</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>60.297000885009766</v>
+      </c>
+      <c r="C82" t="n">
+        <v>52.637001037597656</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-96.15499877929688</v>
+      </c>
+      <c r="C83" t="n">
+        <v>34.099998474121094</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-32.805999755859375</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-3.8450000286102295</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-47.82699966430664</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-45.202999114990234</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-31.128000259399414</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-93.8479995727539</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-17.010000228881836</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-21.85700035095215</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-8.38599967956543</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-2.2639999389648438</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>35.83399963378906</v>
+      </c>
+      <c r="C89" t="n">
+        <v>13.147000312805176</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>29.315000534057617</v>
+      </c>
+      <c r="C90" t="n">
+        <v>54.46799850463867</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>48.35200119018555</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-8.782999992370605</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2.930000066757202</v>
+      </c>
+      <c r="C92" t="n">
+        <v>27.038999557495117</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-16.6200008392334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-55.388999938964844</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-40.85100173950195</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-47.742000579833984</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-12.878000259399414</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-2.0390000343322754</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-51.7760009765625</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.281000137329102</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-32.922000885009766</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23.827999114990234</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>13.982999801635742</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-34.520999908447266</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-35.83399963378906</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-23.833999633789062</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>91.85800170898438</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.541999816894531</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-28.441999435424805</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-34.18000030517578</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>33.84400177001953</v>
+      </c>
+      <c r="C102" t="n">
+        <v>27.875</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>98.43099975585938</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.347999572753906</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-57.750999450683594</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-27.753000259399414</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-43.88999938964844</v>
+      </c>
+      <c r="C105" t="n">
+        <v>13.006999969482422</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>37.584999084472656</v>
+      </c>
+      <c r="C106" t="n">
+        <v>49.768001556396484</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-3.687000036239624</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.373000144958496</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-98.24199676513672</v>
+      </c>
+      <c r="C108" t="n">
+        <v>61.65800094604492</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-23.559999465942383</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-32.52000045776367</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.979999542236328</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-18.108999252319336</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>43.915000915527344</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-2.984999895095825</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>71.50900268554688</v>
+      </c>
+      <c r="C112" t="n">
+        <v>11.652000427246094</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-43.01100158691406</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-38.70199966430664</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-83.9540023803711</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.178999900817871</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>11.09000015258789</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-40.94200134277344</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27.17300033569336</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-13.329999923706055</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-86.10199737548828</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-59.80799865722656</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-22.344999313354492</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-78.27799987792969</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-38.72700119018555</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-33.5880012512207</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-1.2269999980926514</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-28.667999267578125</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>81.3290023803711</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-44.24399948120117</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>51.90399932861328</v>
+      </c>
+      <c r="C122" t="n">
+        <v>19.891000747680664</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-34.972999572753906</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-27.856000900268555</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-51.483001708984375</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-23.24799919128418</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.6470000147819519</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-46.05699920654297</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>68.21900177001953</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-66.98600006103516</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-15.14900016784668</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-25.48200035095215</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22.41200065612793</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-34.375</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>36.17599868774414</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-10.430999755859375</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-23.638999938964844</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-47.680999755859375</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-14.722000122070312</v>
+      </c>
+      <c r="C131" t="n">
+        <v>32.683998107910156</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>16.820999145507812</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-12.720000267028809</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>93.37799835205078</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.003999710083008</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>40.34400177001953</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-24.176000595092773</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.53000020980835</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-4.901000022888184</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-78.01499938964844</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.2699999809265137</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>51.569000244140625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-45.67300033569336</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>49.249000549316406</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-30.895999908447266</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-62.19499969482422</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-21.39900016784668</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-5.047999858856201</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.306000232696533</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.7269999980926514</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-70.22100067138672</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.3609999418258667</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-3.563999891281128</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-15.520999908447266</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16.424999237060547</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-31.604000091552734</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-60.9379997253418</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-46.99700164794922</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-55.560001373291016</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.3010001182556152</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.535999774932861</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-30.327999114990234</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.5799999833106995</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-16.820999145507812</v>
+      </c>
+      <c r="C148" t="n">
+        <v>17.663999557495117</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>52.654998779296875</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.034000396728516</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-11.993000030517578</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-83.77100372314453</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>41.63199996948242</v>
+      </c>
+      <c r="C151" t="n">
+        <v>43.04800033569336</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8.508000373840332</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-2.5390000343322754</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>31.511999130249023</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-8.977999687194824</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-3.3389999866485596</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-36.24300003051758</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-26.378999710083008</v>
+      </c>
+      <c r="C155" t="n">
+        <v>13.776000022888184</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>28.43000030517578</v>
+      </c>
+      <c r="C156" t="n">
+        <v>10.571000099182129</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.974999904632568</v>
+      </c>
+      <c r="C157" t="n">
+        <v>27.288999557495117</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-32.1349983215332</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-45.06800079345703</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>31.097000122070312</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-7.915999889373779</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>28.197999954223633</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-29.7549991607666</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-39.61199951171875</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-33.59400177001953</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-19.219999313354492</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-5.132999897003174</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-10.11400032043457</v>
+      </c>
+      <c r="C163" t="n">
+        <v>69.97699737548828</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.893999099731445</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-44.347999572753906</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-34.74100112915039</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-44.95199966430664</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-77.73400115966797</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-23.749000549316406</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-56.012001037597656</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>69.072998046875</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-97.125</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.170000076293945</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-59.86899948120117</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>47.3390007019043</v>
+      </c>
+      <c r="C170" t="n">
+        <v>17.364999771118164</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-4.705999851226807</v>
+      </c>
+      <c r="C171" t="n">
+        <v>14.055999755859375</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-52.374000549316406</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-50.24399948120117</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>39.21500015258789</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-29.773000717163086</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-42.316001892089844</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-60.60200119018555</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>19.135000228881836</v>
+      </c>
+      <c r="C175" t="n">
+        <v>41.150001525878906</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-54.70600128173828</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-17.59600067138672</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.737000465393066</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-83.1729965209961</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-40.582000732421875</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-53.24700164794922</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-6.421000003814697</v>
+      </c>
+      <c r="C179" t="n">
+        <v>21.966999053955078</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-31.26799964904785</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-34.612998962402344</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-3.6679999828338623</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-26.868000030517578</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>13.409000396728516</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-22.302000045776367</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-95.89199829101562</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-86.3219985961914</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>88.98300170898438</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-53.387001037597656</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-55.04800033569336</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-32.53799819946289</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>27.850000381469727</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-10.027999877929688</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>40.917999267578125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-36.09000015258789</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-58.349998474121094</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.814000129699707</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-52.1609992980957</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-74.7249984741211</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-66.77200317382812</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-34.94300079345703</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-33.374000549316406</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-62.02399826049805</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-8.64900016784668</v>
+      </c>
+      <c r="C192" t="n">
+        <v>31.70800018310547</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-26.166000366210938</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-56.152000427246094</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-39.874000549316406</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-53.375</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>71.64299774169922</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-36.98099899291992</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-96.92400360107422</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.41100025177002</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-2.9110000133514404</v>
+      </c>
+      <c r="C197" t="n">
+        <v>36.20000076293945</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-53.25299835205078</v>
+      </c>
+      <c r="C198" t="n">
+        <v>14.098999977111816</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67.31600189208984</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-39.73400115966797</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-6.525000095367432</v>
+      </c>
+      <c r="C200" t="n">
+        <v>11.975000381469727</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16.424999237060547</v>
+      </c>
+      <c r="C201" t="n">
+        <v>33.22100067138672</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-19.06100082397461</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-56.92100143432617</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>25.18899917602539</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-21.045000076293945</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37.854000091552734</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-5.52400016784668</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-16.479000091552734</v>
+      </c>
+      <c r="C205" t="n">
+        <v>48.65700149536133</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.3440001010894775</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-16.516000747680664</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-48.62099838256836</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-12.390000343322754</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-42.62099838256836</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-50.00600051879883</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16.016000747680664</v>
+      </c>
+      <c r="C209" t="n">
+        <v>11.168999671936035</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-80.40799713134766</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-60.58300018310547</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-95.06800079345703</v>
+      </c>
+      <c r="C211" t="n">
+        <v>44.292999267578125</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-6.885000228881836</v>
+      </c>
+      <c r="C212" t="n">
+        <v>24.884000778198242</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-4.802999973297119</v>
+      </c>
+      <c r="C213" t="n">
+        <v>21.673999786376953</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7.0370001792907715</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-45.33700180053711</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>31.292999267578125</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-39.904998779296875</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>14.984000205993652</v>
+      </c>
+      <c r="C216" t="n">
+        <v>26.172000885009766</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>33.202999114990234</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-52.28900146484375</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-59.277000427246094</v>
+      </c>
+      <c r="C218" t="n">
+        <v>39.66699981689453</v>
+      </c>
+      <c r="D218"/>
+      <c r="E218" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="n">
+        <v>30.054000854492188</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-36.823001861572266</v>
+      </c>
+      <c r="D219"/>
+      <c r="E219" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9.35099983215332</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-39.04399871826172</v>
+      </c>
+      <c r="D220"/>
+      <c r="E220" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-10.651000022888184</v>
+      </c>
+      <c r="C221" t="n">
+        <v>54.430999755859375</v>
+      </c>
+      <c r="D221"/>
+      <c r="E221" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>20.856000900268555</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-26.46500015258789</v>
+      </c>
+      <c r="D222"/>
+      <c r="E222" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="n">
+        <v>19.617000579833984</v>
+      </c>
+      <c r="C223" t="n">
+        <v>17.864999771118164</v>
+      </c>
+      <c r="D223"/>
+      <c r="E223" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-36.98099899291992</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-92.94999694824219</v>
+      </c>
+      <c r="D224"/>
+      <c r="E224" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-3.759999990463257</v>
+      </c>
+      <c r="C225" t="n">
+        <v>59.875</v>
+      </c>
+      <c r="D225"/>
+      <c r="E225" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>11.682000160217285</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-63.33599853515625</v>
+      </c>
+      <c r="D226"/>
+      <c r="E226" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.4679999351501465</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-36.132999420166016</v>
+      </c>
+      <c r="D227"/>
+      <c r="E227" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>47.040000915527344</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-41.25400161743164</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>29.937999725341797</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-58.709999084472656</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-70.56900024414062</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-7.0370001792907715</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="n">
+        <v>56.262001037597656</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.819000005722046</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>46.209999084472656</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-53.52199935913086</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.366000175476074</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-14.263999938964844</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-34.540000915527344</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-39.50199890136719</v>
+      </c>
+      <c r="D234"/>
+      <c r="E234" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-50.5369987487793</v>
+      </c>
+      <c r="C235" t="n">
+        <v>28.35700035095215</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-61.444000244140625</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-10.901000022888184</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-30.822999954223633</v>
+      </c>
+      <c r="C237" t="n">
+        <v>17.902000427246094</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>49.65800094604492</v>
+      </c>
+      <c r="C238" t="n">
+        <v>24.4689998626709</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-69.7750015258789</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-41.40599822998047</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-18.93899917602539</v>
+      </c>
+      <c r="C240" t="n">
+        <v>57.689998626708984</v>
+      </c>
+      <c r="D240"/>
+      <c r="E240" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-22.448999404907227</v>
+      </c>
+      <c r="C241" t="n">
+        <v>15.770999908447266</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-7.598999977111816</v>
+      </c>
+      <c r="C242" t="n">
+        <v>37.029998779296875</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>27.434999465942383</v>
+      </c>
+      <c r="C243" t="n">
+        <v>17.554000854492188</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>45.5260009765625</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-5.126999855041504</v>
+      </c>
+      <c r="D244"/>
+      <c r="E244" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-33.55099868774414</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-25.586000442504883</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-4.644999980926514</v>
+      </c>
+      <c r="C246" t="n">
+        <v>53.75400161743164</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-41.11899948120117</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-13.361000061035156</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="n">
+        <v>23.010000228881836</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-45.702999114990234</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>17.229999542236328</v>
+      </c>
+      <c r="C249" t="n">
+        <v>5.0960001945495605</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-6.817999839782715</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-19.87299919128418</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="n">
+        <v>52.965999603271484</v>
+      </c>
+      <c r="C251" t="n">
+        <v>51.40999984741211</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-28.66200065612793</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-50.939998626708984</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="n">
+        <v>69.68399810791016</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-51.52000045776367</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="n">
+        <v>36.88399887084961</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-17.371000289916992</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-19.659000396728516</v>
+      </c>
+      <c r="C255" t="n">
+        <v>42.03499984741211</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="n">
+        <v>72.125</v>
+      </c>
+      <c r="C256" t="n">
+        <v>65.40499877929688</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-71.36799621582031</v>
+      </c>
+      <c r="C257" t="n">
+        <v>59.862998962402344</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="n">
+        <v>18.316999435424805</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-37.75</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="n">
+        <v>18.121000289916992</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.4819999933242798</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-1.1050000190734863</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-30.676000595092773</v>
+      </c>
+      <c r="D260"/>
+      <c r="E260" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-44.57400131225586</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-44.05500030517578</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-28.058000564575195</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-59.43600082397461</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-7.953000068664551</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4.638999938964844</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-37.36600112915039</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-28.527999877929688</v>
+      </c>
+      <c r="D264"/>
+      <c r="E264" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.388000011444092</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-38.48899841308594</v>
+      </c>
+      <c r="D265"/>
+      <c r="E265" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-44.59199905395508</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-35.33300018310547</v>
+      </c>
+      <c r="D266"/>
+      <c r="E266" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-56.7140007019043</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-39.25199890136719</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="n">
+        <v>13.45199966430664</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-32.159000396728516</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-20.343000411987305</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-11.182000160217285</v>
+      </c>
+      <c r="D269"/>
+      <c r="E269" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.436000108718872</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-52.73400115966797</v>
+      </c>
+      <c r="D270"/>
+      <c r="E270" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="n">
+        <v>40.57600021362305</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-54.492000579833984</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="n">
+        <v>31.95199966430664</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-25.42099952697754</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-57.433998107910156</v>
+      </c>
+      <c r="C273" t="n">
+        <v>38.525001525878906</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>47.5099983215332</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-42.03499984741211</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-28.14299964904785</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-41.61399841308594</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-2.257999897003174</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-5.078000068664551</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-27.16699981689453</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-27.93600082397461</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-24.04800033569336</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-47.19200134277344</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-77.52100372314453</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-55.08399963378906</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-62.0359992980957</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-43.43899917602539</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-71.93599700927734</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-20.15999984741211</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-66.50399780273438</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-39.78900146484375</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14.586999893188477</v>
+      </c>
+      <c r="C283" t="n">
+        <v>48.444000244140625</v>
+      </c>
+      <c r="D283"/>
+      <c r="E283" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="n">
+        <v>31.365999221801758</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-29.461999893188477</v>
+      </c>
+      <c r="D284"/>
+      <c r="E284" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="n">
+        <v>6.51200008392334</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-46.124000549316406</v>
+      </c>
+      <c r="D285"/>
+      <c r="E285" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="n">
+        <v>9.649999618530273</v>
+      </c>
+      <c r="C286" t="n">
+        <v>39.507999420166016</v>
+      </c>
+      <c r="D286"/>
+      <c r="E286" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="n">
+        <v>16.040000915527344</v>
+      </c>
+      <c r="C287" t="n">
+        <v>16.680999755859375</v>
+      </c>
+      <c r="D287"/>
+      <c r="E287" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="n">
+        <v>7.744999885559082</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-75.37799835205078</v>
+      </c>
+      <c r="D288"/>
+      <c r="E288" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-27.17300033569336</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-4.461999893188477</v>
+      </c>
+      <c r="D289"/>
+      <c r="E289" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -71,14 +71,14 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>41.0</v>
+        <v>-41.23500061035156</v>
       </c>
       <c r="C2" t="n">
-        <v>49.0</v>
+        <v>-66.35700225830078</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -86,14 +86,14 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>35.0</v>
+        <v>34.06399917602539</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0</v>
+        <v>-59.356998443603516</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -101,14 +101,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>55.0</v>
+        <v>20.91699981689453</v>
       </c>
       <c r="C4" t="n">
-        <v>45.0</v>
+        <v>-52.582000732421875</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -116,14 +116,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>55.0</v>
+        <v>-38.53799819946289</v>
       </c>
       <c r="C5" t="n">
-        <v>20.0</v>
+        <v>-37.395999908447266</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -131,14 +131,14 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0</v>
+        <v>41.05799865722656</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>22.930999755859375</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -146,14 +146,14 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>25.0</v>
+        <v>-54.034000396728516</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>-53.13100051879883</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,14 +161,14 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>20.0</v>
+        <v>8.098999977111816</v>
       </c>
       <c r="C8" t="n">
-        <v>50.0</v>
+        <v>80.7249984741211</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -176,14 +176,14 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0</v>
+        <v>81.29900360107422</v>
       </c>
       <c r="C9" t="n">
-        <v>43.0</v>
+        <v>13.409000396728516</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -191,14 +191,14 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>55.0</v>
+        <v>14.458999633789062</v>
       </c>
       <c r="C10" t="n">
-        <v>60.0</v>
+        <v>-2.9719998836517334</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -206,14 +206,14 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>30.0</v>
+        <v>-52.53900146484375</v>
       </c>
       <c r="C11" t="n">
-        <v>60.0</v>
+        <v>60.106998443603516</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -221,14 +221,14 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0</v>
+        <v>-57.20199966430664</v>
       </c>
       <c r="C12" t="n">
-        <v>65.0</v>
+        <v>-34.229000091552734</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -236,14 +236,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>50.0</v>
+        <v>-65.552001953125</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0</v>
+        <v>-40.22200012207031</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -251,14 +251,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>30.0</v>
+        <v>-19.750999450683594</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>-10.277999877929688</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -266,14 +266,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0</v>
+        <v>-26.96500015258789</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0</v>
+        <v>-87.01200103759766</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -281,14 +281,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>30.0</v>
+        <v>3.191999912261963</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0</v>
+        <v>-88.65399932861328</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -296,14 +296,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0</v>
+        <v>34.520999908447266</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0</v>
+        <v>32.83700180053711</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -311,14 +311,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>80.03500366210938</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0</v>
+        <v>5.2729997634887695</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -326,14 +326,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>20.0</v>
+        <v>-39.8380012512207</v>
       </c>
       <c r="C19" t="n">
-        <v>40.0</v>
+        <v>-67.73100280761719</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -341,14 +341,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>15.0</v>
+        <v>14.600000381469727</v>
       </c>
       <c r="C20" t="n">
-        <v>60.0</v>
+        <v>11.364999771118164</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -356,14 +356,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>45.0</v>
+        <v>-20.989999771118164</v>
       </c>
       <c r="C21" t="n">
-        <v>65.0</v>
+        <v>-80.51100158691406</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -371,14 +371,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>45.0</v>
+        <v>48.242000579833984</v>
       </c>
       <c r="C22" t="n">
-        <v>20.0</v>
+        <v>47.284000396728516</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -386,14 +386,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>45.0</v>
+        <v>59.3380012512207</v>
       </c>
       <c r="C23" t="n">
-        <v>10.0</v>
+        <v>-31.860000610351562</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -401,14 +401,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>55.0</v>
+        <v>-13.994999885559082</v>
       </c>
       <c r="C24" t="n">
-        <v>5.0</v>
+        <v>-45.624000549316406</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -416,14 +416,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>65.0</v>
+        <v>32.39699935913086</v>
       </c>
       <c r="C25" t="n">
-        <v>35.0</v>
+        <v>-32.53200149536133</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -431,14 +431,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>65.0</v>
+        <v>2.8259999752044678</v>
       </c>
       <c r="C26" t="n">
-        <v>20.0</v>
+        <v>50.82400131225586</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -446,14 +446,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>45.0</v>
+        <v>-66.0770034790039</v>
       </c>
       <c r="C27" t="n">
-        <v>30.0</v>
+        <v>-34.68600082397461</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -461,14 +461,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>35.0</v>
+        <v>-13.65999984741211</v>
       </c>
       <c r="C28" t="n">
-        <v>40.0</v>
+        <v>18.639999389648438</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -476,14 +476,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>41.0</v>
+        <v>-59.34400177001953</v>
       </c>
       <c r="C29" t="n">
-        <v>37.0</v>
+        <v>12.769000053405762</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -491,14 +491,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>64.0</v>
+        <v>-5.132999897003174</v>
       </c>
       <c r="C30" t="n">
-        <v>42.0</v>
+        <v>-18.46299934387207</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -506,14 +506,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>40.0</v>
+        <v>-22.961000442504883</v>
       </c>
       <c r="C31" t="n">
-        <v>60.0</v>
+        <v>-21.729000091552734</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -521,14 +521,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>31.0</v>
+        <v>58.130001068115234</v>
       </c>
       <c r="C32" t="n">
-        <v>52.0</v>
+        <v>46.60599899291992</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -536,14 +536,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>35.0</v>
+        <v>-49.60300064086914</v>
       </c>
       <c r="C33" t="n">
-        <v>69.0</v>
+        <v>-76.6240005493164</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -551,14 +551,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>53.0</v>
+        <v>-4.802999973297119</v>
       </c>
       <c r="C34" t="n">
-        <v>52.0</v>
+        <v>43.0359992980957</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -566,14 +566,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>65.0</v>
+        <v>68.61599731445312</v>
       </c>
       <c r="C35" t="n">
-        <v>55.0</v>
+        <v>-19.62299919128418</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -581,14 +581,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>63.0</v>
+        <v>37.915000915527344</v>
       </c>
       <c r="C36" t="n">
-        <v>65.0</v>
+        <v>63.5989990234375</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -596,14 +596,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2.0</v>
+        <v>1.2510000467300415</v>
       </c>
       <c r="C37" t="n">
-        <v>60.0</v>
+        <v>-26.549999237060547</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -611,14 +611,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>20.0</v>
+        <v>-37.95199966430664</v>
       </c>
       <c r="C38" t="n">
-        <v>20.0</v>
+        <v>1.684999942779541</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -626,14 +626,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>-40.50299835205078</v>
       </c>
       <c r="C39" t="n">
-        <v>5.0</v>
+        <v>8.038000106811523</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -641,14 +641,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>60.0</v>
+        <v>-8.392000198364258</v>
       </c>
       <c r="C40" t="n">
-        <v>12.0</v>
+        <v>-38.678001403808594</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -656,14 +656,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>40.0</v>
+        <v>-36.724998474121094</v>
       </c>
       <c r="C41" t="n">
-        <v>25.0</v>
+        <v>25.493999481201172</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -671,14 +671,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>42.0</v>
+        <v>-47.75400161743164</v>
       </c>
       <c r="C42" t="n">
-        <v>7.0</v>
+        <v>-50.073001861572266</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -686,14 +686,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>24.0</v>
+        <v>22.594999313354492</v>
       </c>
       <c r="C43" t="n">
-        <v>12.0</v>
+        <v>-28.35700035095215</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -701,14 +701,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>23.0</v>
+        <v>-36.3650016784668</v>
       </c>
       <c r="C44" t="n">
-        <v>3.0</v>
+        <v>-48.16299819946289</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -716,14 +716,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>75.4520034790039</v>
       </c>
       <c r="C45" t="n">
-        <v>14.0</v>
+        <v>-13.42199993133545</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -731,14 +731,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>6.0</v>
+        <v>-64.5199966430664</v>
       </c>
       <c r="C46" t="n">
-        <v>38.0</v>
+        <v>-13.232000350952148</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -746,14 +746,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2.0</v>
+        <v>1.2569999694824219</v>
       </c>
       <c r="C47" t="n">
-        <v>48.0</v>
+        <v>29.1560001373291</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -761,14 +761,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>8.0</v>
+        <v>-1.569000005722046</v>
       </c>
       <c r="C48" t="n">
-        <v>56.0</v>
+        <v>-35.9739990234375</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -776,14 +776,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>13.0</v>
+        <v>46.74700164794922</v>
       </c>
       <c r="C49" t="n">
-        <v>52.0</v>
+        <v>6.696000099182129</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -791,14 +791,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6.0</v>
+        <v>82.08000183105469</v>
       </c>
       <c r="C50" t="n">
-        <v>68.0</v>
+        <v>27.05699920654297</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -806,14 +806,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>47.0</v>
+        <v>74.69499969482422</v>
       </c>
       <c r="C51" t="n">
-        <v>47.0</v>
+        <v>19.365999221801758</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="52">
@@ -821,14 +821,14 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>49.0</v>
+        <v>47.01499938964844</v>
       </c>
       <c r="C52" t="n">
-        <v>58.0</v>
+        <v>9.338000297546387</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="53">
@@ -836,14 +836,14 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>27.0</v>
+        <v>-62.0359992980957</v>
       </c>
       <c r="C53" t="n">
-        <v>43.0</v>
+        <v>-21.326000213623047</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54">
@@ -851,14 +851,14 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="n">
-        <v>37.0</v>
+        <v>9.192000389099121</v>
       </c>
       <c r="C54" t="n">
-        <v>31.0</v>
+        <v>20.038000106811523</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
@@ -866,14 +866,14 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="n">
-        <v>57.0</v>
+        <v>-3.0940001010894775</v>
       </c>
       <c r="C55" t="n">
-        <v>29.0</v>
+        <v>21.582000732421875</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -881,14 +881,14 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="n">
-        <v>63.0</v>
+        <v>-75.44599914550781</v>
       </c>
       <c r="C56" t="n">
-        <v>23.0</v>
+        <v>13.086000442504883</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
@@ -896,14 +896,14 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="n">
-        <v>53.0</v>
+        <v>10.034000396728516</v>
       </c>
       <c r="C57" t="n">
-        <v>12.0</v>
+        <v>-63.73899841308594</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -911,14 +911,14 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="n">
-        <v>32.0</v>
+        <v>71.81400299072266</v>
       </c>
       <c r="C58" t="n">
-        <v>12.0</v>
+        <v>26.500999450683594</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -926,14 +926,14 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>36.0</v>
+        <v>18.841999053955078</v>
       </c>
       <c r="C59" t="n">
-        <v>26.0</v>
+        <v>-38.01900100708008</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="60">
@@ -941,14 +941,14 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="n">
-        <v>21.0</v>
+        <v>-10.541000366210938</v>
       </c>
       <c r="C60" t="n">
-        <v>24.0</v>
+        <v>-31.30500030517578</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -956,14 +956,14 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="n">
-        <v>17.0</v>
+        <v>8.251999855041504</v>
       </c>
       <c r="C61" t="n">
-        <v>34.0</v>
+        <v>-91.1500015258789</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
@@ -971,14 +971,14 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>12.0</v>
+        <v>72.82099914550781</v>
       </c>
       <c r="C62" t="n">
-        <v>24.0</v>
+        <v>-38.91600036621094</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="63">
@@ -986,14 +986,14 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="n">
-        <v>24.0</v>
+        <v>-30.156999588012695</v>
       </c>
       <c r="C63" t="n">
-        <v>58.0</v>
+        <v>38.7760009765625</v>
       </c>
       <c r="D63"/>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -1001,14 +1001,14 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="n">
-        <v>27.0</v>
+        <v>-56.25600051879883</v>
       </c>
       <c r="C64" t="n">
-        <v>69.0</v>
+        <v>-5.547999858856201</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
@@ -1016,14 +1016,14 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>15.0</v>
+        <v>-8.39799976348877</v>
       </c>
       <c r="C65" t="n">
-        <v>77.0</v>
+        <v>-37.604000091552734</v>
       </c>
       <c r="D65"/>
       <c r="E65" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="66">
@@ -1031,14 +1031,14 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="n">
-        <v>62.0</v>
+        <v>15.020999908447266</v>
       </c>
       <c r="C66" t="n">
-        <v>77.0</v>
+        <v>13.708000183105469</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
@@ -1046,14 +1046,14 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="n">
-        <v>49.0</v>
+        <v>-60.19900131225586</v>
       </c>
       <c r="C67" t="n">
-        <v>73.0</v>
+        <v>24.29199981689453</v>
       </c>
       <c r="D67"/>
       <c r="E67" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
@@ -1061,14 +1061,14 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="n">
-        <v>67.0</v>
+        <v>-13.793999671936035</v>
       </c>
       <c r="C68" t="n">
-        <v>5.0</v>
+        <v>-27.106000900268555</v>
       </c>
       <c r="D68"/>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="69">
@@ -1076,14 +1076,14 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>56.0</v>
+        <v>-34.79600143432617</v>
       </c>
       <c r="C69" t="n">
-        <v>39.0</v>
+        <v>-22.204999923706055</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="70">
@@ -1091,14 +1091,14 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="n">
-        <v>37.0</v>
+        <v>69.64099884033203</v>
       </c>
       <c r="C70" t="n">
-        <v>47.0</v>
+        <v>83.05699920654297</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
@@ -1106,14 +1106,14 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="n">
-        <v>37.0</v>
+        <v>-44.439998626708984</v>
       </c>
       <c r="C71" t="n">
-        <v>56.0</v>
+        <v>30.09000015258789</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
@@ -1121,14 +1121,14 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="n">
-        <v>57.0</v>
+        <v>48.632999420166016</v>
       </c>
       <c r="C72" t="n">
-        <v>68.0</v>
+        <v>3.0209999084472656</v>
       </c>
       <c r="D72"/>
       <c r="E72" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
@@ -1136,14 +1136,14 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>47.0</v>
+        <v>-15.314000129699707</v>
       </c>
       <c r="C73" t="n">
-        <v>16.0</v>
+        <v>51.70899963378906</v>
       </c>
       <c r="D73"/>
       <c r="E73" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
@@ -1151,14 +1151,14 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="n">
-        <v>44.0</v>
+        <v>36.26100158691406</v>
       </c>
       <c r="C74" t="n">
-        <v>17.0</v>
+        <v>26.781999588012695</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="75">
@@ -1166,14 +1166,14 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="n">
-        <v>46.0</v>
+        <v>59.96099853515625</v>
       </c>
       <c r="C75" t="n">
-        <v>13.0</v>
+        <v>24.309999465942383</v>
       </c>
       <c r="D75"/>
       <c r="E75" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="76">
@@ -1181,14 +1181,14 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>49.0</v>
+        <v>55.30400085449219</v>
       </c>
       <c r="C76" t="n">
-        <v>11.0</v>
+        <v>6.627999782562256</v>
       </c>
       <c r="D76"/>
       <c r="E76" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
@@ -1196,14 +1196,14 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="n">
-        <v>49.0</v>
+        <v>39.959999084472656</v>
       </c>
       <c r="C77" t="n">
-        <v>42.0</v>
+        <v>48.297000885009766</v>
       </c>
       <c r="D77"/>
       <c r="E77" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -1211,14 +1211,14 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="n">
-        <v>53.0</v>
+        <v>-48.89500045776367</v>
       </c>
       <c r="C78" t="n">
-        <v>43.0</v>
+        <v>-71.0999984741211</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
@@ -1226,14 +1226,14 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>61.0</v>
+        <v>-2.3380000591278076</v>
       </c>
       <c r="C79" t="n">
-        <v>52.0</v>
+        <v>-62.909000396728516</v>
       </c>
       <c r="D79"/>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
@@ -1241,14 +1241,14 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>57.0</v>
+        <v>9.491000175476074</v>
       </c>
       <c r="C80" t="n">
-        <v>48.0</v>
+        <v>-41.9010009765625</v>
       </c>
       <c r="D80"/>
       <c r="E80" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
@@ -1256,14 +1256,14 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="n">
-        <v>56.0</v>
+        <v>-54.67499923706055</v>
       </c>
       <c r="C81" t="n">
-        <v>37.0</v>
+        <v>-18.43899917602539</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="82">
@@ -1271,14 +1271,14 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="n">
-        <v>55.0</v>
+        <v>10.979999542236328</v>
       </c>
       <c r="C82" t="n">
-        <v>54.0</v>
+        <v>-7.605000019073486</v>
       </c>
       <c r="D82"/>
       <c r="E82" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
@@ -1286,14 +1286,14 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="n">
-        <v>15.0</v>
+        <v>-69.8239974975586</v>
       </c>
       <c r="C83" t="n">
-        <v>47.0</v>
+        <v>-50.354000091552734</v>
       </c>
       <c r="D83"/>
       <c r="E83" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -1301,14 +1301,14 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="n">
-        <v>14.0</v>
+        <v>-40.30799865722656</v>
       </c>
       <c r="C84" t="n">
-        <v>37.0</v>
+        <v>-7.452000141143799</v>
       </c>
       <c r="D84"/>
       <c r="E84" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
@@ -1316,14 +1316,14 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="n">
-        <v>11.0</v>
+        <v>62.24399948120117</v>
       </c>
       <c r="C85" t="n">
-        <v>31.0</v>
+        <v>43.62799835205078</v>
       </c>
       <c r="D85"/>
       <c r="E85" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
@@ -1331,14 +1331,14 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="n">
-        <v>16.0</v>
+        <v>29.07699966430664</v>
       </c>
       <c r="C86" t="n">
-        <v>22.0</v>
+        <v>63.11600112915039</v>
       </c>
       <c r="D86"/>
       <c r="E86" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
@@ -1346,14 +1346,14 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="n">
-        <v>4.0</v>
+        <v>-12.067000389099121</v>
       </c>
       <c r="C87" t="n">
-        <v>18.0</v>
+        <v>-21.509000778198242</v>
       </c>
       <c r="D87"/>
       <c r="E87" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
@@ -1361,14 +1361,14 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="n">
-        <v>28.0</v>
+        <v>14.727999687194824</v>
       </c>
       <c r="C88" t="n">
-        <v>18.0</v>
+        <v>28.9060001373291</v>
       </c>
       <c r="D88"/>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
@@ -1376,14 +1376,14 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="n">
-        <v>26.0</v>
+        <v>-63.08599853515625</v>
       </c>
       <c r="C89" t="n">
-        <v>52.0</v>
+        <v>-60.11399841308594</v>
       </c>
       <c r="D89"/>
       <c r="E89" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="90">
@@ -1391,14 +1391,14 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>26.0</v>
+        <v>33.654998779296875</v>
       </c>
       <c r="C90" t="n">
-        <v>35.0</v>
+        <v>-0.9279999732971191</v>
       </c>
       <c r="D90"/>
       <c r="E90" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
@@ -1406,14 +1406,14 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>31.0</v>
+        <v>-12.225000381469727</v>
       </c>
       <c r="C91" t="n">
-        <v>67.0</v>
+        <v>14.14799976348877</v>
       </c>
       <c r="D91"/>
       <c r="E91" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="92">
@@ -1421,14 +1421,14 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="n">
-        <v>15.0</v>
+        <v>-89.96600341796875</v>
       </c>
       <c r="C92" t="n">
-        <v>19.0</v>
+        <v>51.513999938964844</v>
       </c>
       <c r="D92"/>
       <c r="E92" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="93">
@@ -1436,14 +1436,14 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>22.0</v>
+        <v>-0.7630000114440918</v>
       </c>
       <c r="C93" t="n">
-        <v>22.0</v>
+        <v>41.3390007019043</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
@@ -1451,14 +1451,14 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>18.0</v>
+        <v>80.69499969482422</v>
       </c>
       <c r="C94" t="n">
-        <v>24.0</v>
+        <v>32.983001708984375</v>
       </c>
       <c r="D94"/>
       <c r="E94" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="95">
@@ -1466,14 +1466,14 @@
         <v>94.0</v>
       </c>
       <c r="B95" t="n">
-        <v>26.0</v>
+        <v>-53.39400100708008</v>
       </c>
       <c r="C95" t="n">
-        <v>27.0</v>
+        <v>-14.239999771118164</v>
       </c>
       <c r="D95"/>
       <c r="E95" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="96">
@@ -1481,14 +1481,14 @@
         <v>95.0</v>
       </c>
       <c r="B96" t="n">
-        <v>25.0</v>
+        <v>-53.284000396728516</v>
       </c>
       <c r="C96" t="n">
-        <v>24.0</v>
+        <v>-64.13600158691406</v>
       </c>
       <c r="D96"/>
       <c r="E96" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
@@ -1496,14 +1496,14 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>22.0</v>
+        <v>73.26000213623047</v>
       </c>
       <c r="C97" t="n">
-        <v>27.0</v>
+        <v>10.668999671936035</v>
       </c>
       <c r="D97"/>
       <c r="E97" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="98">
@@ -1511,14 +1511,14 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>25.0</v>
+        <v>59.612998962402344</v>
       </c>
       <c r="C98" t="n">
-        <v>21.0</v>
+        <v>13.45199966430664</v>
       </c>
       <c r="D98"/>
       <c r="E98" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="99">
@@ -1526,14 +1526,14 @@
         <v>98.0</v>
       </c>
       <c r="B99" t="n">
-        <v>19.0</v>
+        <v>-37.012001037597656</v>
       </c>
       <c r="C99" t="n">
-        <v>21.0</v>
+        <v>6.47599983215332</v>
       </c>
       <c r="D99"/>
       <c r="E99" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
@@ -1541,14 +1541,14 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>20.0</v>
+        <v>-53.65599822998047</v>
       </c>
       <c r="C100" t="n">
-        <v>26.0</v>
+        <v>21.691999435424805</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="101">
@@ -1556,13 +1556,1753 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>18.0</v>
+        <v>-36.88999938964844</v>
       </c>
       <c r="C101" t="n">
-        <v>18.0</v>
+        <v>18.371999740600586</v>
       </c>
       <c r="D101"/>
       <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-4.607999801635742</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-13.805999755859375</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>53.801998138427734</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.99300003051758</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>48.46799850463867</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-66.04000091552734</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-46.393001556396484</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-20.929000854492188</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-15.045000076293945</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-40.845001220703125</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-73.62100219726562</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-9.552000045776367</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>92.84700012207031</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45.58700180053711</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>33.55699920654297</v>
+      </c>
+      <c r="C109" t="n">
+        <v>28.06399917602539</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.32099914550781</v>
+      </c>
+      <c r="C110" t="n">
+        <v>24.413999557495117</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-6.610000133514404</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-30.156999588012695</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12.102999687194824</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.84000015258789</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-61.9630012512207</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.23900032043457</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23.87700080871582</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.807999610900879</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>49.779998779296875</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.866000175476074</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-53.020999908447266</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-21.483999252319336</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>54.96200180053711</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.984999895095825</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.864999771118164</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-69.58599853515625</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>33.948001861572266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>45.20899963378906</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-32.16600036621094</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-23.621000289916992</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-17.54800033569336</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-46.76499938964844</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>31.743999481201172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>33.97200012207031</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45.374000549316406</v>
+      </c>
+      <c r="C123" t="n">
+        <v>22.131000518798828</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-5.218999862670898</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-23.11400032043457</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-51.055999755859375</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-46.54499816894531</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.77400016784668</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.133000373840332</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-39.757999420166016</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-13.019000053405762</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.93000030517578</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.320999145507812</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>33.7400016784668</v>
+      </c>
+      <c r="C129" t="n">
+        <v>66.59500122070312</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-91.81500244140625</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.857999801635742</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-24.628000259399414</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-68.70099639892578</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>44.659000396728516</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.46500015258789</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>45.446998596191406</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-21.069000244140625</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-37.36600112915039</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-12.097000122070312</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>41.99800109863281</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.15299999713897705</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-42.821998596191406</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-30.170000076293945</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>34.90599822998047</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-4.578000068664551</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-65.13700103759766</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-43.07899856567383</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.270000457763672</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-4.999000072479248</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-36.73099899291992</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-8.928999900817871</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-26.983999252319336</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-19.56800079345703</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-31.298999786376953</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-83.81300354003906</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-26.79400062561035</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.505999565124512</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-39.36199951171875</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-58.520999908447266</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-34.36899948120117</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43.37200164794922</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.186999797821045</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-38.22600173950195</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-9.447999954223633</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-25.610000610351562</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-99.23699951171875</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>48.058998107910156</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.517000198364258</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-43.62799835205078</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-32.31800079345703</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-16.601999282836914</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-29.32699966430664</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-29.809999465942383</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-12.407999992370605</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-51.90999984741211</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-28.711000442504883</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-1.8009999990463257</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-18.67099952697754</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>18.738000869750977</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.39900016784668</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>60.119998931884766</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.788000106811523</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43.07899856567383</v>
+      </c>
+      <c r="C157" t="n">
+        <v>42.016998291015625</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-39.435001373291016</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-5.9019999504089355</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-35.888999938964844</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-16.034000396728516</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-41.82699966430664</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38.994998931884766</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>84.49700164794922</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29.82200050354004</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-17.559999465942383</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-10.479999542236328</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-48.382999420166016</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-48.91999816894531</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-49.334999084472656</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-17.9689998626709</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.094999313354492</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-2.490000009536743</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>65.5270004272461</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.026000022888184</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-2.930000066757202</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13.220000267028809</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-18.76799964904785</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-23.663000106811523</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-91.09500122070312</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-80.73699951171875</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-21.08799934387207</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-13.293000221252441</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>46.98500061035156</v>
+      </c>
+      <c r="C171" t="n">
+        <v>17.224000930786133</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-61.957000732421875</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-33.03799819946289</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-9.003000259399414</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-25.45199966430664</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>33.6609992980957</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-7.665999889373779</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-25.591999053955078</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-10.84000015258789</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>36.560001373291016</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-2.440999984741211</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7.140999794006348</v>
+      </c>
+      <c r="C177" t="n">
+        <v>24.816999435424805</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-43.16999816894531</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-30.48699951171875</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-21.22800064086914</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.7509999871253967</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>19.695999145507812</v>
+      </c>
+      <c r="C180" t="n">
+        <v>10.767000198364258</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-6.49399995803833</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-29.424999237060547</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>54.38800048828125</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.630000114440918</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>64.2030029296875</v>
+      </c>
+      <c r="C183" t="n">
+        <v>77.61199951171875</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>40.38100051879883</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.6109999418258667</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-41.71099853515625</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-5.132999897003174</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>74.27400207519531</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-19.922000885009766</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-73.9990005493164</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-54.625999450683594</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29.70599937438965</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.454000473022461</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23.78499984741211</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.177000045776367</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>42.577999114990234</v>
+      </c>
+      <c r="C190" t="n">
+        <v>45.32500076293945</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-16.729999542236328</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-16.55900001525879</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-14.696999549865723</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.11599999666213989</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-19.768999099731445</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.392000198364258</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-30.267000198364258</v>
+      </c>
+      <c r="C194" t="n">
+        <v>14.892999649047852</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-63.11600112915039</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-67.46199798583984</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>86.02899932861328</v>
+      </c>
+      <c r="C196" t="n">
+        <v>38.91600036621094</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>79.4800033569336</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-24.865999221801758</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>35.14400100708008</v>
+      </c>
+      <c r="C198" t="n">
+        <v>14.734000205993652</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-49.3650016784668</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-9.052000045776367</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-49.474998474121094</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-17.577999114990234</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>57.500999450683594</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16.32699966430664</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>54.888999938964844</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.02400016784668</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-53.027000427246094</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-33.17900085449219</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.41499999165534973</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.643999099731445</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>21.5939998626709</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16.143999099731445</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-46.92399978637695</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-49.26100158691406</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>18.457000732421875</v>
+      </c>
+      <c r="C207" t="n">
+        <v>19.732999801635742</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>35.821998596191406</v>
+      </c>
+      <c r="C208" t="n">
+        <v>19.76300048828125</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>71.86900329589844</v>
+      </c>
+      <c r="C209" t="n">
+        <v>29.034000396728516</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-56.37799835205078</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-42.755001068115234</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-25.799999237060547</v>
+      </c>
+      <c r="C211" t="n">
+        <v>25.159000396728516</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-5.676000118255615</v>
+      </c>
+      <c r="C212" t="n">
+        <v>33.849998474121094</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>54.04100036621094</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-5.291999816894531</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-63.07400131225586</v>
+      </c>
+      <c r="C214" t="n">
+        <v>27.3799991607666</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-16.86400032043457</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-49.768001556396484</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47.91899871826172</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13.628999710083008</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-10.723999977111816</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-2.075000047683716</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/temp/Temp_PVRP_Shipments.xlsx
+++ b/temp/Temp_PVRP_Shipments.xlsx
@@ -71,14 +71,14 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>37.0</v>
+        <v>-41.23500061035156</v>
       </c>
       <c r="C2" t="n">
-        <v>52.0</v>
+        <v>-66.35700225830078</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -86,14 +86,14 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>49.0</v>
+        <v>34.06399917602539</v>
       </c>
       <c r="C3" t="n">
-        <v>49.0</v>
+        <v>-59.356998443603516</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -101,14 +101,14 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>52.0</v>
+        <v>20.91699981689453</v>
       </c>
       <c r="C4" t="n">
-        <v>64.0</v>
+        <v>-52.582000732421875</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -116,14 +116,14 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>20.0</v>
+        <v>-38.53799819946289</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0</v>
+        <v>-37.395999908447266</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -131,14 +131,14 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>40.0</v>
+        <v>41.05799865722656</v>
       </c>
       <c r="C6" t="n">
-        <v>30.0</v>
+        <v>22.930999755859375</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -146,14 +146,14 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0</v>
+        <v>-54.034000396728516</v>
       </c>
       <c r="C7" t="n">
-        <v>47.0</v>
+        <v>-53.13100051879883</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,14 +161,14 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0</v>
+        <v>8.098999977111816</v>
       </c>
       <c r="C8" t="n">
-        <v>63.0</v>
+        <v>80.7249984741211</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -176,14 +176,14 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0</v>
+        <v>81.29900360107422</v>
       </c>
       <c r="C9" t="n">
-        <v>62.0</v>
+        <v>13.409000396728516</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="10">
@@ -191,14 +191,14 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>52.0</v>
+        <v>14.458999633789062</v>
       </c>
       <c r="C10" t="n">
-        <v>33.0</v>
+        <v>-2.9719998836517334</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -206,14 +206,14 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>51.0</v>
+        <v>-52.53900146484375</v>
       </c>
       <c r="C11" t="n">
-        <v>21.0</v>
+        <v>60.106998443603516</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -221,14 +221,14 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>42.0</v>
+        <v>-57.20199966430664</v>
       </c>
       <c r="C12" t="n">
-        <v>41.0</v>
+        <v>-34.229000091552734</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13">
@@ -236,14 +236,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0</v>
+        <v>-65.552001953125</v>
       </c>
       <c r="C13" t="n">
-        <v>32.0</v>
+        <v>-40.22200012207031</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -251,14 +251,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>-19.750999450683594</v>
       </c>
       <c r="C14" t="n">
-        <v>25.0</v>
+        <v>-10.277999877929688</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="15">
@@ -266,14 +266,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>12.0</v>
+        <v>-26.96500015258789</v>
       </c>
       <c r="C15" t="n">
-        <v>42.0</v>
+        <v>-87.01200103759766</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="16">
@@ -281,14 +281,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>36.0</v>
+        <v>3.191999912261963</v>
       </c>
       <c r="C16" t="n">
-        <v>16.0</v>
+        <v>-88.65399932861328</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
@@ -296,14 +296,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>52.0</v>
+        <v>34.520999908447266</v>
       </c>
       <c r="C17" t="n">
-        <v>41.0</v>
+        <v>32.83700180053711</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="18">
@@ -311,14 +311,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>27.0</v>
+        <v>80.03500366210938</v>
       </c>
       <c r="C18" t="n">
-        <v>23.0</v>
+        <v>5.2729997634887695</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="19">
@@ -326,14 +326,14 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>17.0</v>
+        <v>-39.8380012512207</v>
       </c>
       <c r="C19" t="n">
-        <v>33.0</v>
+        <v>-67.73100280761719</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20">
@@ -341,14 +341,14 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>13.0</v>
+        <v>14.600000381469727</v>
       </c>
       <c r="C20" t="n">
-        <v>13.0</v>
+        <v>11.364999771118164</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -356,14 +356,14 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>57.0</v>
+        <v>-20.989999771118164</v>
       </c>
       <c r="C21" t="n">
-        <v>58.0</v>
+        <v>-80.51100158691406</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
@@ -371,14 +371,14 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>62.0</v>
+        <v>48.242000579833984</v>
       </c>
       <c r="C22" t="n">
-        <v>42.0</v>
+        <v>47.284000396728516</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
@@ -386,14 +386,14 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>42.0</v>
+        <v>59.3380012512207</v>
       </c>
       <c r="C23" t="n">
-        <v>57.0</v>
+        <v>-31.860000610351562</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24">
@@ -401,14 +401,14 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>16.0</v>
+        <v>-13.994999885559082</v>
       </c>
       <c r="C24" t="n">
-        <v>57.0</v>
+        <v>-45.624000549316406</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
@@ -416,14 +416,14 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>32.39699935913086</v>
       </c>
       <c r="C25" t="n">
-        <v>52.0</v>
+        <v>-32.53200149536133</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="26">
@@ -431,14 +431,14 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>2.8259999752044678</v>
       </c>
       <c r="C26" t="n">
-        <v>38.0</v>
+        <v>50.82400131225586</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
@@ -446,14 +446,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>27.0</v>
+        <v>-66.0770034790039</v>
       </c>
       <c r="C27" t="n">
-        <v>68.0</v>
+        <v>-34.68600082397461</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
@@ -461,14 +461,14 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>30.0</v>
+        <v>-13.65999984741211</v>
       </c>
       <c r="C28" t="n">
-        <v>48.0</v>
+        <v>18.639999389648438</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
@@ -476,14 +476,14 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>43.0</v>
+        <v>-59.34400177001953</v>
       </c>
       <c r="C29" t="n">
-        <v>67.0</v>
+        <v>12.769000053405762</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
@@ -491,14 +491,14 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>58.0</v>
+        <v>-5.132999897003174</v>
       </c>
       <c r="C30" t="n">
-        <v>48.0</v>
+        <v>-18.46299934387207</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
@@ -506,14 +506,14 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>58.0</v>
+        <v>-22.961000442504883</v>
       </c>
       <c r="C31" t="n">
-        <v>27.0</v>
+        <v>-21.729000091552734</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
@@ -521,14 +521,14 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>37.0</v>
+        <v>58.130001068115234</v>
       </c>
       <c r="C32" t="n">
-        <v>69.0</v>
+        <v>46.60599899291992</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -536,14 +536,14 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>38.0</v>
+        <v>-49.60300064086914</v>
       </c>
       <c r="C33" t="n">
-        <v>46.0</v>
+        <v>-76.6240005493164</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
@@ -551,14 +551,14 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>46.0</v>
+        <v>-4.802999973297119</v>
       </c>
       <c r="C34" t="n">
-        <v>10.0</v>
+        <v>43.0359992980957</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
@@ -566,14 +566,14 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>61.0</v>
+        <v>68.61599731445312</v>
       </c>
       <c r="C35" t="n">
-        <v>33.0</v>
+        <v>-19.62299919128418</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="36">
@@ -581,14 +581,14 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>62.0</v>
+        <v>37.915000915527344</v>
       </c>
       <c r="C36" t="n">
-        <v>63.0</v>
+        <v>63.5989990234375</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="37">
@@ -596,14 +596,14 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>63.0</v>
+        <v>1.2510000467300415</v>
       </c>
       <c r="C37" t="n">
-        <v>69.0</v>
+        <v>-26.549999237060547</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="38">
@@ -611,14 +611,14 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>32.0</v>
+        <v>-37.95199966430664</v>
       </c>
       <c r="C38" t="n">
-        <v>22.0</v>
+        <v>1.684999942779541</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="39">
@@ -626,14 +626,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>45.0</v>
+        <v>-40.50299835205078</v>
       </c>
       <c r="C39" t="n">
-        <v>35.0</v>
+        <v>8.038000106811523</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
@@ -641,14 +641,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>59.0</v>
+        <v>-8.392000198364258</v>
       </c>
       <c r="C40" t="n">
-        <v>15.0</v>
+        <v>-38.678001403808594</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
@@ -656,14 +656,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>5.0</v>
+        <v>-36.724998474121094</v>
       </c>
       <c r="C41" t="n">
-        <v>6.0</v>
+        <v>25.493999481201172</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42">
@@ -671,14 +671,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>-47.75400161743164</v>
       </c>
       <c r="C42" t="n">
-        <v>17.0</v>
+        <v>-50.073001861572266</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="43">
@@ -686,14 +686,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>21.0</v>
+        <v>22.594999313354492</v>
       </c>
       <c r="C43" t="n">
-        <v>10.0</v>
+        <v>-28.35700035095215</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="44">
@@ -701,14 +701,14 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>5.0</v>
+        <v>-36.3650016784668</v>
       </c>
       <c r="C44" t="n">
-        <v>64.0</v>
+        <v>-48.16299819946289</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -716,14 +716,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>30.0</v>
+        <v>75.4520034790039</v>
       </c>
       <c r="C45" t="n">
-        <v>15.0</v>
+        <v>-13.42199993133545</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46">
@@ -731,14 +731,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>39.0</v>
+        <v>-64.5199966430664</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0</v>
+        <v>-13.232000350952148</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47">
@@ -746,14 +746,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>32.0</v>
+        <v>1.2569999694824219</v>
       </c>
       <c r="C47" t="n">
-        <v>39.0</v>
+        <v>29.1560001373291</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48">
@@ -761,14 +761,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>25.0</v>
+        <v>-1.569000005722046</v>
       </c>
       <c r="C48" t="n">
-        <v>32.0</v>
+        <v>-35.9739990234375</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49">
@@ -776,14 +776,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>25.0</v>
+        <v>46.74700164794922</v>
       </c>
       <c r="C49" t="n">
-        <v>55.0</v>
+        <v>6.696000099182129</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="50">
@@ -791,14 +791,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>48.0</v>
+        <v>82.08000183105469</v>
       </c>
       <c r="C50" t="n">
-        <v>28.0</v>
+        <v>27.05699920654297</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
@@ -806,13 +806,2503 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>56.0</v>
+        <v>74.69499969482422</v>
       </c>
       <c r="C51" t="n">
-        <v>37.0</v>
+        <v>19.365999221801758</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>47.01499938964844</v>
+      </c>
+      <c r="C52" t="n">
+        <v>9.338000297546387</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-62.0359992980957</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-21.326000213623047</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>9.192000389099121</v>
+      </c>
+      <c r="C54" t="n">
+        <v>20.038000106811523</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-3.0940001010894775</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21.582000732421875</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-75.44599914550781</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.086000442504883</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10.034000396728516</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-63.73899841308594</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>71.81400299072266</v>
+      </c>
+      <c r="C58" t="n">
+        <v>26.500999450683594</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>18.841999053955078</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-38.01900100708008</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-10.541000366210938</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-31.30500030517578</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8.251999855041504</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-91.1500015258789</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>72.82099914550781</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-38.91600036621094</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-30.156999588012695</v>
+      </c>
+      <c r="C63" t="n">
+        <v>38.7760009765625</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-56.25600051879883</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-5.547999858856201</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-8.39799976348877</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-37.604000091552734</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>15.020999908447266</v>
+      </c>
+      <c r="C66" t="n">
+        <v>13.708000183105469</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-60.19900131225586</v>
+      </c>
+      <c r="C67" t="n">
+        <v>24.29199981689453</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-13.793999671936035</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-27.106000900268555</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-34.79600143432617</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-22.204999923706055</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69.64099884033203</v>
+      </c>
+      <c r="C70" t="n">
+        <v>83.05699920654297</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-44.439998626708984</v>
+      </c>
+      <c r="C71" t="n">
+        <v>30.09000015258789</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>48.632999420166016</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.0209999084472656</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-15.314000129699707</v>
+      </c>
+      <c r="C73" t="n">
+        <v>51.70899963378906</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>36.26100158691406</v>
+      </c>
+      <c r="C74" t="n">
+        <v>26.781999588012695</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>59.96099853515625</v>
+      </c>
+      <c r="C75" t="n">
+        <v>24.309999465942383</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>55.30400085449219</v>
+      </c>
+      <c r="C76" t="n">
+        <v>6.627999782562256</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>39.959999084472656</v>
+      </c>
+      <c r="C77" t="n">
+        <v>48.297000885009766</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-48.89500045776367</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-71.0999984741211</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-2.3380000591278076</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-62.909000396728516</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9.491000175476074</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-41.9010009765625</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-54.67499923706055</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-18.43899917602539</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10.979999542236328</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-7.605000019073486</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-69.8239974975586</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-50.354000091552734</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-40.30799865722656</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-7.452000141143799</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>62.24399948120117</v>
+      </c>
+      <c r="C85" t="n">
+        <v>43.62799835205078</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>29.07699966430664</v>
+      </c>
+      <c r="C86" t="n">
+        <v>63.11600112915039</v>
+      </c>
+      <c r="D86"/>
+      <c r="E86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-12.067000389099121</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-21.509000778198242</v>
+      </c>
+      <c r="D87"/>
+      <c r="E87" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.727999687194824</v>
+      </c>
+      <c r="C88" t="n">
+        <v>28.9060001373291</v>
+      </c>
+      <c r="D88"/>
+      <c r="E88" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-63.08599853515625</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-60.11399841308594</v>
+      </c>
+      <c r="D89"/>
+      <c r="E89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>33.654998779296875</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.9279999732971191</v>
+      </c>
+      <c r="D90"/>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-12.225000381469727</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14.14799976348877</v>
+      </c>
+      <c r="D91"/>
+      <c r="E91" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-89.96600341796875</v>
+      </c>
+      <c r="C92" t="n">
+        <v>51.513999938964844</v>
+      </c>
+      <c r="D92"/>
+      <c r="E92" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.7630000114440918</v>
+      </c>
+      <c r="C93" t="n">
+        <v>41.3390007019043</v>
+      </c>
+      <c r="D93"/>
+      <c r="E93" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>80.69499969482422</v>
+      </c>
+      <c r="C94" t="n">
+        <v>32.983001708984375</v>
+      </c>
+      <c r="D94"/>
+      <c r="E94" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-53.39400100708008</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-14.239999771118164</v>
+      </c>
+      <c r="D95"/>
+      <c r="E95" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-53.284000396728516</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-64.13600158691406</v>
+      </c>
+      <c r="D96"/>
+      <c r="E96" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>73.26000213623047</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10.668999671936035</v>
+      </c>
+      <c r="D97"/>
+      <c r="E97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>59.612998962402344</v>
+      </c>
+      <c r="C98" t="n">
+        <v>13.45199966430664</v>
+      </c>
+      <c r="D98"/>
+      <c r="E98" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-37.012001037597656</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.47599983215332</v>
+      </c>
+      <c r="D99"/>
+      <c r="E99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-53.65599822998047</v>
+      </c>
+      <c r="C100" t="n">
+        <v>21.691999435424805</v>
+      </c>
+      <c r="D100"/>
+      <c r="E100" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-36.88999938964844</v>
+      </c>
+      <c r="C101" t="n">
+        <v>18.371999740600586</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-4.607999801635742</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-13.805999755859375</v>
+      </c>
+      <c r="D102"/>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>53.801998138427734</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.99300003051758</v>
+      </c>
+      <c r="D103"/>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>48.46799850463867</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-66.04000091552734</v>
+      </c>
+      <c r="D104"/>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-46.393001556396484</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-20.929000854492188</v>
+      </c>
+      <c r="D105"/>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-15.045000076293945</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-40.845001220703125</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-73.62100219726562</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-9.552000045776367</v>
+      </c>
+      <c r="D107"/>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>92.84700012207031</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45.58700180053711</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>33.55699920654297</v>
+      </c>
+      <c r="C109" t="n">
+        <v>28.06399917602539</v>
+      </c>
+      <c r="D109"/>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.32099914550781</v>
+      </c>
+      <c r="C110" t="n">
+        <v>24.413999557495117</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-6.610000133514404</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-30.156999588012695</v>
+      </c>
+      <c r="D111"/>
+      <c r="E111" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12.102999687194824</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23.84000015258789</v>
+      </c>
+      <c r="D112"/>
+      <c r="E112" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-61.9630012512207</v>
+      </c>
+      <c r="C113" t="n">
+        <v>26.23900032043457</v>
+      </c>
+      <c r="D113"/>
+      <c r="E113" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>23.87700080871582</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.807999610900879</v>
+      </c>
+      <c r="D114"/>
+      <c r="E114" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>49.779998779296875</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.866000175476074</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-53.020999908447266</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-21.483999252319336</v>
+      </c>
+      <c r="D116"/>
+      <c r="E116" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>54.96200180053711</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.984999895095825</v>
+      </c>
+      <c r="D117"/>
+      <c r="E117" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.864999771118164</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-69.58599853515625</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>33.948001861572266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>45.20899963378906</v>
+      </c>
+      <c r="D119"/>
+      <c r="E119" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-32.16600036621094</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-23.621000289916992</v>
+      </c>
+      <c r="D120"/>
+      <c r="E120" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-17.54800033569336</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-46.76499938964844</v>
+      </c>
+      <c r="D121"/>
+      <c r="E121" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>31.743999481201172</v>
+      </c>
+      <c r="C122" t="n">
+        <v>33.97200012207031</v>
+      </c>
+      <c r="D122"/>
+      <c r="E122" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>45.374000549316406</v>
+      </c>
+      <c r="C123" t="n">
+        <v>22.131000518798828</v>
+      </c>
+      <c r="D123"/>
+      <c r="E123" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-5.218999862670898</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-23.11400032043457</v>
+      </c>
+      <c r="D124"/>
+      <c r="E124" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-51.055999755859375</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-46.54499816894531</v>
+      </c>
+      <c r="D125"/>
+      <c r="E125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.77400016784668</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.133000373840332</v>
+      </c>
+      <c r="D126"/>
+      <c r="E126" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-39.757999420166016</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-13.019000053405762</v>
+      </c>
+      <c r="D127"/>
+      <c r="E127" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>27.93000030517578</v>
+      </c>
+      <c r="C128" t="n">
+        <v>29.320999145507812</v>
+      </c>
+      <c r="D128"/>
+      <c r="E128" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>33.7400016784668</v>
+      </c>
+      <c r="C129" t="n">
+        <v>66.59500122070312</v>
+      </c>
+      <c r="D129"/>
+      <c r="E129" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-91.81500244140625</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.857999801635742</v>
+      </c>
+      <c r="D130"/>
+      <c r="E130" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-24.628000259399414</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-68.70099639892578</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>44.659000396728516</v>
+      </c>
+      <c r="C132" t="n">
+        <v>20.46500015258789</v>
+      </c>
+      <c r="D132"/>
+      <c r="E132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>45.446998596191406</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-21.069000244140625</v>
+      </c>
+      <c r="D133"/>
+      <c r="E133" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-37.36600112915039</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-12.097000122070312</v>
+      </c>
+      <c r="D134"/>
+      <c r="E134" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>41.99800109863281</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.15299999713897705</v>
+      </c>
+      <c r="D135"/>
+      <c r="E135" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-42.821998596191406</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-30.170000076293945</v>
+      </c>
+      <c r="D136"/>
+      <c r="E136" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>34.90599822998047</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-4.578000068664551</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-65.13700103759766</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-43.07899856567383</v>
+      </c>
+      <c r="D138"/>
+      <c r="E138" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>20.270000457763672</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-4.999000072479248</v>
+      </c>
+      <c r="D139"/>
+      <c r="E139" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-36.73099899291992</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-8.928999900817871</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-26.983999252319336</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-19.56800079345703</v>
+      </c>
+      <c r="D141"/>
+      <c r="E141" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-31.298999786376953</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-83.81300354003906</v>
+      </c>
+      <c r="D142"/>
+      <c r="E142" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-26.79400062561035</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.505999565124512</v>
+      </c>
+      <c r="D143"/>
+      <c r="E143" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-39.36199951171875</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-58.520999908447266</v>
+      </c>
+      <c r="D144"/>
+      <c r="E144" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-34.36899948120117</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6100000143051147</v>
+      </c>
+      <c r="D145"/>
+      <c r="E145" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>43.37200164794922</v>
+      </c>
+      <c r="C146" t="n">
+        <v>4.186999797821045</v>
+      </c>
+      <c r="D146"/>
+      <c r="E146" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-38.22600173950195</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-9.447999954223633</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-25.610000610351562</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-99.23699951171875</v>
+      </c>
+      <c r="D148"/>
+      <c r="E148" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>48.058998107910156</v>
+      </c>
+      <c r="C149" t="n">
+        <v>29.517000198364258</v>
+      </c>
+      <c r="D149"/>
+      <c r="E149" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-43.62799835205078</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-32.31800079345703</v>
+      </c>
+      <c r="D150"/>
+      <c r="E150" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-16.601999282836914</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-29.32699966430664</v>
+      </c>
+      <c r="D151"/>
+      <c r="E151" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-29.809999465942383</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-12.407999992370605</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-51.90999984741211</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-28.711000442504883</v>
+      </c>
+      <c r="D153"/>
+      <c r="E153" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-1.8009999990463257</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-18.67099952697754</v>
+      </c>
+      <c r="D154"/>
+      <c r="E154" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>18.738000869750977</v>
+      </c>
+      <c r="C155" t="n">
+        <v>21.39900016784668</v>
+      </c>
+      <c r="D155"/>
+      <c r="E155" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>60.119998931884766</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.788000106811523</v>
+      </c>
+      <c r="D156"/>
+      <c r="E156" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>43.07899856567383</v>
+      </c>
+      <c r="C157" t="n">
+        <v>42.016998291015625</v>
+      </c>
+      <c r="D157"/>
+      <c r="E157" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-39.435001373291016</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-5.9019999504089355</v>
+      </c>
+      <c r="D158"/>
+      <c r="E158" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-35.888999938964844</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-16.034000396728516</v>
+      </c>
+      <c r="D159"/>
+      <c r="E159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-41.82699966430664</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38.994998931884766</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="n">
+        <v>84.49700164794922</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29.82200050354004</v>
+      </c>
+      <c r="D161"/>
+      <c r="E161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-17.559999465942383</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-10.479999542236328</v>
+      </c>
+      <c r="D162"/>
+      <c r="E162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-48.382999420166016</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-48.91999816894531</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-49.334999084472656</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-17.9689998626709</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16.094999313354492</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-2.490000009536743</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>65.5270004272461</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.026000022888184</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-2.930000066757202</v>
+      </c>
+      <c r="C167" t="n">
+        <v>13.220000267028809</v>
+      </c>
+      <c r="D167"/>
+      <c r="E167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-18.76799964904785</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-23.663000106811523</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-91.09500122070312</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-80.73699951171875</v>
+      </c>
+      <c r="D169"/>
+      <c r="E169" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-21.08799934387207</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-13.293000221252441</v>
+      </c>
+      <c r="D170"/>
+      <c r="E170" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>46.98500061035156</v>
+      </c>
+      <c r="C171" t="n">
+        <v>17.224000930786133</v>
+      </c>
+      <c r="D171"/>
+      <c r="E171" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-61.957000732421875</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-33.03799819946289</v>
+      </c>
+      <c r="D172"/>
+      <c r="E172" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-9.003000259399414</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-25.45199966430664</v>
+      </c>
+      <c r="D173"/>
+      <c r="E173" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>33.6609992980957</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-7.665999889373779</v>
+      </c>
+      <c r="D174"/>
+      <c r="E174" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-25.591999053955078</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-10.84000015258789</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>36.560001373291016</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-2.440999984741211</v>
+      </c>
+      <c r="D176"/>
+      <c r="E176" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7.140999794006348</v>
+      </c>
+      <c r="C177" t="n">
+        <v>24.816999435424805</v>
+      </c>
+      <c r="D177"/>
+      <c r="E177" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-43.16999816894531</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-30.48699951171875</v>
+      </c>
+      <c r="D178"/>
+      <c r="E178" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-21.22800064086914</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.7509999871253967</v>
+      </c>
+      <c r="D179"/>
+      <c r="E179" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="n">
+        <v>19.695999145507812</v>
+      </c>
+      <c r="C180" t="n">
+        <v>10.767000198364258</v>
+      </c>
+      <c r="D180"/>
+      <c r="E180" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-6.49399995803833</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-29.424999237060547</v>
+      </c>
+      <c r="D181"/>
+      <c r="E181" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="n">
+        <v>54.38800048828125</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.630000114440918</v>
+      </c>
+      <c r="D182"/>
+      <c r="E182" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="n">
+        <v>64.2030029296875</v>
+      </c>
+      <c r="C183" t="n">
+        <v>77.61199951171875</v>
+      </c>
+      <c r="D183"/>
+      <c r="E183" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>40.38100051879883</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.6109999418258667</v>
+      </c>
+      <c r="D184"/>
+      <c r="E184" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-41.71099853515625</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-5.132999897003174</v>
+      </c>
+      <c r="D185"/>
+      <c r="E185" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="n">
+        <v>74.27400207519531</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-19.922000885009766</v>
+      </c>
+      <c r="D186"/>
+      <c r="E186" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-73.9990005493164</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-54.625999450683594</v>
+      </c>
+      <c r="D187"/>
+      <c r="E187" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29.70599937438965</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.454000473022461</v>
+      </c>
+      <c r="D188"/>
+      <c r="E188" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23.78499984741211</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.177000045776367</v>
+      </c>
+      <c r="D189"/>
+      <c r="E189" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>42.577999114990234</v>
+      </c>
+      <c r="C190" t="n">
+        <v>45.32500076293945</v>
+      </c>
+      <c r="D190"/>
+      <c r="E190" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-16.729999542236328</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-16.55900001525879</v>
+      </c>
+      <c r="D191"/>
+      <c r="E191" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-14.696999549865723</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-0.11599999666213989</v>
+      </c>
+      <c r="D192"/>
+      <c r="E192" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-19.768999099731445</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.392000198364258</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-30.267000198364258</v>
+      </c>
+      <c r="C194" t="n">
+        <v>14.892999649047852</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-63.11600112915039</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-67.46199798583984</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>86.02899932861328</v>
+      </c>
+      <c r="C196" t="n">
+        <v>38.91600036621094</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>79.4800033569336</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-24.865999221801758</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>35.14400100708008</v>
+      </c>
+      <c r="C198" t="n">
+        <v>14.734000205993652</v>
+      </c>
+      <c r="D198"/>
+      <c r="E198" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-49.3650016784668</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-9.052000045776367</v>
+      </c>
+      <c r="D199"/>
+      <c r="E199" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-49.474998474121094</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-17.577999114990234</v>
+      </c>
+      <c r="D200"/>
+      <c r="E200" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>57.500999450683594</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16.32699966430664</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>54.888999938964844</v>
+      </c>
+      <c r="C202" t="n">
+        <v>12.02400016784668</v>
+      </c>
+      <c r="D202"/>
+      <c r="E202" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-53.027000427246094</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-33.17900085449219</v>
+      </c>
+      <c r="D203"/>
+      <c r="E203" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.41499999165534973</v>
+      </c>
+      <c r="C204" t="n">
+        <v>16.643999099731445</v>
+      </c>
+      <c r="D204"/>
+      <c r="E204" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>21.5939998626709</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16.143999099731445</v>
+      </c>
+      <c r="D205"/>
+      <c r="E205" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-46.92399978637695</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-49.26100158691406</v>
+      </c>
+      <c r="D206"/>
+      <c r="E206" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>18.457000732421875</v>
+      </c>
+      <c r="C207" t="n">
+        <v>19.732999801635742</v>
+      </c>
+      <c r="D207"/>
+      <c r="E207" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>35.821998596191406</v>
+      </c>
+      <c r="C208" t="n">
+        <v>19.76300048828125</v>
+      </c>
+      <c r="D208"/>
+      <c r="E208" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>71.86900329589844</v>
+      </c>
+      <c r="C209" t="n">
+        <v>29.034000396728516</v>
+      </c>
+      <c r="D209"/>
+      <c r="E209" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-56.37799835205078</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-42.755001068115234</v>
+      </c>
+      <c r="D210"/>
+      <c r="E210" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-25.799999237060547</v>
+      </c>
+      <c r="C211" t="n">
+        <v>25.159000396728516</v>
+      </c>
+      <c r="D211"/>
+      <c r="E211" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-5.676000118255615</v>
+      </c>
+      <c r="C212" t="n">
+        <v>33.849998474121094</v>
+      </c>
+      <c r="D212"/>
+      <c r="E212" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>54.04100036621094</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-5.291999816894531</v>
+      </c>
+      <c r="D213"/>
+      <c r="E213" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-63.07400131225586</v>
+      </c>
+      <c r="C214" t="n">
+        <v>27.3799991607666</v>
+      </c>
+      <c r="D214"/>
+      <c r="E214" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-16.86400032043457</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-49.768001556396484</v>
+      </c>
+      <c r="D215"/>
+      <c r="E215" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>47.91899871826172</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13.628999710083008</v>
+      </c>
+      <c r="D216"/>
+      <c r="E216" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-10.723999977111816</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-2.075000047683716</v>
+      </c>
+      <c r="D217"/>
+      <c r="E217" t="n">
         <v>1.0</v>
       </c>
     </row>
